--- a/ShareSkill_ManageListings_TestConditions_Cases.xlsx
+++ b/ShareSkill_ManageListings_TestConditions_Cases.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Saisree\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D07835-9F82-4857-BC20-35349846CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672B8455-FB76-469E-B7E5-6F4C8F13D71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="3" xr2:uid="{ABBE8A2D-E18A-4D59-B8C1-C24425655FE1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" firstSheet="1" activeTab="5" xr2:uid="{ABBE8A2D-E18A-4D59-B8C1-C24425655FE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Share Skill Test Conditions" sheetId="1" r:id="rId1"/>
     <sheet name="Share Skill Testcases" sheetId="2" r:id="rId2"/>
     <sheet name="Manage Listing Test Conditions" sheetId="4" r:id="rId3"/>
     <sheet name="Manage Listing Test Cases" sheetId="5" r:id="rId4"/>
+    <sheet name="ProfileTestConditions" sheetId="6" r:id="rId5"/>
+    <sheet name="ProfileTestCases" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="531">
   <si>
     <t>ID</t>
   </si>
@@ -2920,6 +2922,1406 @@
   </si>
   <si>
     <t>Manage Listings</t>
+  </si>
+  <si>
+    <t>Validate "Profile Picture" on Profile Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "upload" the "Profile Picture" on Profile Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "update" the "Profile Picture" on Profile Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Delete" the "Profile Picture" on Profile Page</t>
+  </si>
+  <si>
+    <t>Validate "Profile Name" on  Profile Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to 'Edit' the Name</t>
+  </si>
+  <si>
+    <t>Validate "Location" on Profile page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user is able to "Select" the Country </t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the City</t>
+  </si>
+  <si>
+    <t>Check if the user  is able to " Edit " the Country</t>
+  </si>
+  <si>
+    <t>Check if the user is able to " Edit " the City</t>
+  </si>
+  <si>
+    <t>Validate "Availability" on Profile Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user is able to "Select " the Availability </t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the Availability</t>
+  </si>
+  <si>
+    <t>Validate "Hours" on Profile Page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select" the Hours</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the Hours</t>
+  </si>
+  <si>
+    <t>Validate "Earn Target" on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Select "the Earnings Target</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the Earnings Target</t>
+  </si>
+  <si>
+    <t>Validate "Description" on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Enter" the "Descripriton"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the "Description"</t>
+  </si>
+  <si>
+    <t>Validate "Language Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to Click  on "Language Tab"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user is able to "Add" the language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user is able to "Cancel" the language  </t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the language</t>
+  </si>
+  <si>
+    <t>Check If the user is able to "Cancel" the Edit data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the user is able to "Delete" the language </t>
+  </si>
+  <si>
+    <t>Validate "Skills Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to Click on "Skills Tab"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Cancel" the Skill</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Add" the skills on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the Skills on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Delete" the Skills on profile page</t>
+  </si>
+  <si>
+    <t>Validate "Education Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to click on "Education Tab"</t>
+  </si>
+  <si>
+    <t>Check If the user is able to "Add" the Education details on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Cancel" the Education</t>
+  </si>
+  <si>
+    <t>Check If the user is able to "Edit" the Education Details on Profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Delete" the Education Details on profile page</t>
+  </si>
+  <si>
+    <t>Validate "Certification Tab" on profile page</t>
+  </si>
+  <si>
+    <t>Check If the user is able to click on "Certification Tab"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Add" the Certification details on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Cancel" the Certification</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Edit" the Certification details on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Delete" the Certification details on profile page</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "upload" the "Profile Image" on Profile Page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "Profile Image"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Profile Image"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select the "Profile Image" </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to select the Profile image.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "open" </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Upload the profile Image Successfully.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Reload" and check if the  Image is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to see the Profile Image.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on " Delete" Profile Image</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Delete"</t>
+  </si>
+  <si>
+    <t>User should not be able to see the Profile Image.</t>
+  </si>
+  <si>
+    <t>Step 3: Click on "profile Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Location"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Location"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select the Country</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Select the Country</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select the "City"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Select the City</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select the "Country" or Change the Select Country</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Change the Country</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select the "City" or Change the Select City</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Change the City</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Availability"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Availability"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select the "Availability Time"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Select the "Availability Time"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Edit  the "Availability Time"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Edit the "Availability Time"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Hours"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Hours"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select the "Hours"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Select the "Hours"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Edit Hours"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on " Edit Hours"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Earnings Target"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on " Earnings Target"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select the "Earnings Target"</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Select the "Earnings Target"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on " Edit Earnings Target"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on " Edit Earnings Target"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Description Field"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to move to the description field</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter the Description </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Enter the Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Save" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to save the Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on  "Edit Description"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able Click the Edit Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Edit  the Description </t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Edit the Description</t>
+  </si>
+  <si>
+    <t>User should be able to save the Edit Description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Language Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Language Tab"</t>
+  </si>
+  <si>
+    <t>Check if the user is able to "Add" the language on profile page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Add New" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User Should be able to Click on "Add New" Button</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter the "Language "</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Enter the "Language"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select the " Language Level"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Select the Language Level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Add" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Add the Language and user should be able to see the Added Language</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Cancel" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Cancel the Language and user should not be able to see the Cancel Language</t>
+  </si>
+  <si>
+    <t>Check if the user ia able to "Edit" the language on profile page</t>
+  </si>
+  <si>
+    <t>Step 4: Click on "Edit" Button</t>
+  </si>
+  <si>
+    <t>User should be able to click on"Edit" Button</t>
+  </si>
+  <si>
+    <t>Step 5:  Edit the Exist Data</t>
+  </si>
+  <si>
+    <t>User should be able to Edit the Exisitng Data</t>
+  </si>
+  <si>
+    <t>Step 6: Click on "Update" Button</t>
+  </si>
+  <si>
+    <t>User should be able Update the Language</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Edit" Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Edit the Exist Data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Cancel" Button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to Cancel  the Edit Language and that should not be displayed </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on " Delete" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to "Delete" the Language an d  popup message will be displayed "Language Deleted"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Skill Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Skill Tab"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter the "Skill "</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Enter the "Skill"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Select the " Skill Level"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Select the Skill Level</t>
+  </si>
+  <si>
+    <t>User should be able to Add the Skill and user should be able to see the Added Skill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on " Cancel " Button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to Cancle the Skill </t>
+  </si>
+  <si>
+    <t>User should be able  to Update the Skill</t>
+  </si>
+  <si>
+    <t>User should be able to "Delete" the Skill and  popup message will be displayed "Skill Deleted"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Education Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Education Tab"</t>
+  </si>
+  <si>
+    <t>Step 5: Enter all the Required Fields</t>
+  </si>
+  <si>
+    <t>User Should be able to Enter all the Required Fields</t>
+  </si>
+  <si>
+    <t>Step 6: Click on "Add" Button</t>
+  </si>
+  <si>
+    <t>User should be able to Add the Education and Education details should be displayed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on " Cancel " Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Step 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Click on "Edit" Button</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Update" Button</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able  to Update the Education and That Education will be displayed </t>
+  </si>
+  <si>
+    <t>Step 4: Click on "Delete" Button</t>
+  </si>
+  <si>
+    <t>User should be able to delete Education</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Certification Tab"</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Click on "Certification Tab"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter all the Required Fields</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Add" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to Add the Certificatin and Certification details should be displayed</t>
+  </si>
+  <si>
+    <t>User should be able to Cancle the Certification</t>
+  </si>
+  <si>
+    <t>TC_011_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able  to Update the Certification  and That Certificaiton  will be displayed </t>
+  </si>
+  <si>
+    <t>TC_011_05</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Step 4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Click on "Delete" Button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to delete Ceritification</t>
   </si>
 </sst>
 </file>
@@ -2985,7 +4387,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -3153,11 +4555,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3295,6 +4706,42 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3303,42 +4750,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3348,6 +4759,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3355,15 +4775,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3381,6 +4792,283 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3702,14 +5390,14 @@
       <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1796875" customWidth="1"/>
-    <col min="4" max="4" width="71.90625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.19921875" customWidth="1"/>
+    <col min="4" max="4" width="71.9296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +5411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="44" t="s">
         <v>4</v>
       </c>
@@ -3737,512 +5425,512 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="55" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="58"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="64" t="s">
         <v>97</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="9" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="56"/>
       <c r="B5" s="59"/>
-      <c r="C5" s="53"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
       <c r="B6" s="59"/>
-      <c r="C6" s="53"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="56"/>
       <c r="B7" s="59"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
       <c r="B8" s="59"/>
-      <c r="C8" s="53"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
       <c r="B9" s="59"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
       <c r="B10" s="59"/>
-      <c r="C10" s="53"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="56"/>
       <c r="B11" s="59"/>
-      <c r="C11" s="53"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="57"/>
       <c r="B12" s="60"/>
-      <c r="C12" s="54"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="55" t="s">
         <v>73</v>
       </c>
       <c r="B14" s="58"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="52" t="s">
         <v>96</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="56"/>
       <c r="B15" s="59"/>
-      <c r="C15" s="62"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="56"/>
       <c r="B16" s="59"/>
-      <c r="C16" s="62"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="18" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="33.700000000000003" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="56"/>
       <c r="B17" s="59"/>
-      <c r="C17" s="62"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="16" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="56"/>
       <c r="B18" s="59"/>
-      <c r="C18" s="62"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="56"/>
       <c r="B19" s="59"/>
-      <c r="C19" s="62"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="56"/>
       <c r="B20" s="59"/>
-      <c r="C20" s="62"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="56"/>
       <c r="B21" s="59"/>
-      <c r="C21" s="62"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="16" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="57"/>
       <c r="B22" s="60"/>
-      <c r="C22" s="63"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="55" t="s">
         <v>94</v>
       </c>
       <c r="B24" s="58"/>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="52" t="s">
         <v>95</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="56"/>
       <c r="B25" s="59"/>
-      <c r="C25" s="62"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="18" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="56"/>
       <c r="B26" s="59"/>
-      <c r="C26" s="62"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="57"/>
       <c r="B27" s="60"/>
-      <c r="C27" s="63"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="64" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="61" t="s">
         <v>132</v>
       </c>
       <c r="B29" s="58"/>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="52" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="62"/>
       <c r="B30" s="59"/>
-      <c r="C30" s="62"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="65"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="62"/>
       <c r="B31" s="59"/>
-      <c r="C31" s="62"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="16" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="65"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="62"/>
       <c r="B32" s="59"/>
-      <c r="C32" s="62"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="16" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="65"/>
+    <row r="33" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="62"/>
       <c r="B33" s="59"/>
-      <c r="C33" s="62"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="66"/>
+    <row r="34" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="63"/>
       <c r="B34" s="60"/>
-      <c r="C34" s="63"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="19" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="55" t="s">
         <v>139</v>
       </c>
       <c r="B36" s="58"/>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="52" t="s">
         <v>155</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="56"/>
       <c r="B37" s="59"/>
-      <c r="C37" s="62"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="18" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="57"/>
       <c r="B38" s="60"/>
-      <c r="C38" s="63"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="19" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="55" t="s">
         <v>147</v>
       </c>
       <c r="B40" s="58"/>
-      <c r="C40" s="61" t="s">
+      <c r="C40" s="52" t="s">
         <v>156</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="56"/>
       <c r="B41" s="59"/>
-      <c r="C41" s="62"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="18" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="57"/>
       <c r="B42" s="60"/>
-      <c r="C42" s="63"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="19" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="55" t="s">
         <v>158</v>
       </c>
       <c r="B44" s="58"/>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="52" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="56"/>
       <c r="B45" s="59"/>
-      <c r="C45" s="62"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="16" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="56"/>
       <c r="B46" s="59"/>
-      <c r="C46" s="62"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="56"/>
       <c r="B47" s="59"/>
-      <c r="C47" s="62"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="16" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="56"/>
       <c r="B48" s="59"/>
-      <c r="C48" s="62"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="16" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="56"/>
       <c r="B49" s="59"/>
-      <c r="C49" s="62"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="16" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="57"/>
       <c r="B50" s="60"/>
-      <c r="C50" s="63"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="55" t="s">
         <v>229</v>
       </c>
       <c r="B52" s="58"/>
-      <c r="C52" s="61" t="s">
+      <c r="C52" s="52" t="s">
         <v>230</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="56"/>
       <c r="B53" s="59"/>
-      <c r="C53" s="62"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="18" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="56"/>
       <c r="B54" s="59"/>
-      <c r="C54" s="62"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="16" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="56"/>
       <c r="B55" s="59"/>
-      <c r="C55" s="62"/>
+      <c r="C55" s="53"/>
       <c r="D55" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="56"/>
       <c r="B56" s="59"/>
-      <c r="C56" s="62"/>
+      <c r="C56" s="53"/>
       <c r="D56" s="16" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="57"/>
       <c r="B57" s="60"/>
-      <c r="C57" s="63"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61" t="s">
+      <c r="B59" s="52"/>
+      <c r="C59" s="52" t="s">
         <v>254</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A60" s="56"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
       <c r="D60" s="16" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A61" s="56"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
       <c r="D61" s="16" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A62" s="56"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
       <c r="D62" s="16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="56"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
       <c r="D63" s="16" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="56"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
       <c r="D64" s="16" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="56"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="16" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="57"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="63"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="19" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C67" s="9"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61" t="s">
+      <c r="B68" s="52"/>
+      <c r="C68" s="52" t="s">
         <v>284</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="56"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
       <c r="D69" s="18" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="57"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="63"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="19" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A72" s="47" t="s">
         <v>298</v>
       </c>
@@ -4256,36 +5944,36 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C4:C12"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="C14:C22"/>
+    <mergeCell ref="A14:A22"/>
+    <mergeCell ref="B14:B22"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C44:C50"/>
+    <mergeCell ref="B44:B50"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="C52:C57"/>
+    <mergeCell ref="A52:A57"/>
+    <mergeCell ref="B52:B57"/>
     <mergeCell ref="C59:C66"/>
     <mergeCell ref="B59:B66"/>
     <mergeCell ref="A59:A66"/>
     <mergeCell ref="C68:C70"/>
     <mergeCell ref="A68:A70"/>
     <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C44:C50"/>
-    <mergeCell ref="B44:B50"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="C52:C57"/>
-    <mergeCell ref="A52:A57"/>
-    <mergeCell ref="B52:B57"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="A29:A34"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C4:C12"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="B4:B12"/>
-    <mergeCell ref="C14:C22"/>
-    <mergeCell ref="A14:A22"/>
-    <mergeCell ref="B14:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4295,22 +5983,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6246634-ABA6-4DB1-AD6F-87C4E99E5CE7}">
   <dimension ref="A1:H310"/>
   <sheetViews>
-    <sheetView topLeftCell="A309" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="46.6328125" customWidth="1"/>
-    <col min="3" max="3" width="44.54296875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="31.54296875" customWidth="1"/>
-    <col min="5" max="5" width="22.08984375" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="46.59765625" customWidth="1"/>
+    <col min="3" max="3" width="44.53125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.53125" customWidth="1"/>
+    <col min="5" max="5" width="22.06640625" customWidth="1"/>
+    <col min="6" max="6" width="18.9296875" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -4336,11 +6024,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="70" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -4353,9 +6041,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="71"/>
-      <c r="B3" s="73"/>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="74"/>
+      <c r="B3" s="71"/>
       <c r="C3" s="15" t="s">
         <v>20</v>
       </c>
@@ -4364,9 +6052,9 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
-      <c r="B4" s="73"/>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="74"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
@@ -4374,9 +6062,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73"/>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="74"/>
+      <c r="B5" s="71"/>
       <c r="C5" s="21" t="s">
         <v>23</v>
       </c>
@@ -4384,9 +6072,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73"/>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="74"/>
+      <c r="B6" s="71"/>
       <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
@@ -4394,9 +6082,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="71"/>
-      <c r="B7" s="73"/>
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="74"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="15" t="s">
         <v>46</v>
       </c>
@@ -4404,9 +6092,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73"/>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="74"/>
+      <c r="B8" s="71"/>
       <c r="C8" s="21" t="s">
         <v>26</v>
       </c>
@@ -4414,9 +6102,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="71"/>
-      <c r="B9" s="73"/>
+    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="74"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="25" t="s">
         <v>27</v>
       </c>
@@ -4424,9 +6112,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
-      <c r="B10" s="73"/>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="74"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="21" t="s">
         <v>29</v>
       </c>
@@ -4434,9 +6122,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="178.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73"/>
+    <row r="11" spans="1:8" ht="178.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="74"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="17" t="s">
         <v>49</v>
       </c>
@@ -4444,9 +6132,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="74"/>
+      <c r="B12" s="71"/>
       <c r="C12" s="21" t="s">
         <v>31</v>
       </c>
@@ -4454,9 +6142,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73"/>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="74"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="21" t="s">
         <v>33</v>
       </c>
@@ -4464,9 +6152,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73"/>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="74"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="21" t="s">
         <v>35</v>
       </c>
@@ -4474,9 +6162,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="71"/>
-      <c r="B15" s="73"/>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="74"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="21" t="s">
         <v>37</v>
       </c>
@@ -4484,9 +6172,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74"/>
+    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="75"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="26" t="s">
         <v>40</v>
       </c>
@@ -4494,11 +6182,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="64" t="s">
         <v>100</v>
       </c>
       <c r="C17" s="29" t="s">
@@ -4508,9 +6196,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="77"/>
-      <c r="B18" s="73"/>
+      <c r="B18" s="71"/>
       <c r="C18" s="15" t="s">
         <v>20</v>
       </c>
@@ -4518,9 +6206,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="77"/>
-      <c r="B19" s="73"/>
+      <c r="B19" s="71"/>
       <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
@@ -4528,9 +6216,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="78"/>
-      <c r="B20" s="74"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="26" t="s">
         <v>53</v>
       </c>
@@ -4538,11 +6226,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C21" s="28"/>
       <c r="D21" s="20"/>
     </row>
-    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="79" t="s">
         <v>56</v>
       </c>
@@ -4556,7 +6244,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A23" s="79"/>
       <c r="B23" s="81"/>
       <c r="C23" s="34" t="s">
@@ -4566,7 +6254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A24" s="79"/>
       <c r="B24" s="81"/>
       <c r="C24" s="34" t="s">
@@ -4576,7 +6264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="79"/>
       <c r="B25" s="81"/>
       <c r="C25" s="33" t="s">
@@ -4584,7 +6272,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="79"/>
       <c r="B26" s="81"/>
       <c r="C26" s="33" t="s">
@@ -4594,11 +6282,11 @@
         <v>195</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="64" t="s">
         <v>101</v>
       </c>
       <c r="C28" s="29" t="s">
@@ -4608,9 +6296,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="71"/>
-      <c r="B29" s="73"/>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="74"/>
+      <c r="B29" s="71"/>
       <c r="C29" s="15" t="s">
         <v>20</v>
       </c>
@@ -4618,9 +6306,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="71"/>
-      <c r="B30" s="73"/>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="74"/>
+      <c r="B30" s="71"/>
       <c r="C30" s="15" t="s">
         <v>22</v>
       </c>
@@ -4628,9 +6316,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="72"/>
-      <c r="B31" s="74"/>
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="75"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="26" t="s">
         <v>64</v>
       </c>
@@ -4638,11 +6326,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="70" t="s">
+    <row r="33" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A33" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="64" t="s">
         <v>102</v>
       </c>
       <c r="C33" s="29" t="s">
@@ -4652,9 +6340,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="71"/>
-      <c r="B34" s="73"/>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="74"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="15" t="s">
         <v>20</v>
       </c>
@@ -4662,9 +6350,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
-      <c r="B35" s="73"/>
+    <row r="35" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="74"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="15" t="s">
         <v>22</v>
       </c>
@@ -4672,9 +6360,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="72"/>
-      <c r="B36" s="74"/>
+    <row r="36" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="75"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="26" t="s">
         <v>65</v>
       </c>
@@ -4682,11 +6370,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="70" t="s">
+    <row r="38" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A38" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="64" t="s">
         <v>98</v>
       </c>
       <c r="C38" s="29" t="s">
@@ -4696,9 +6384,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="71"/>
-      <c r="B39" s="73"/>
+    <row r="39" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A39" s="74"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="15" t="s">
         <v>20</v>
       </c>
@@ -4706,9 +6394,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="71"/>
-      <c r="B40" s="73"/>
+    <row r="40" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A40" s="74"/>
+      <c r="B40" s="71"/>
       <c r="C40" s="15" t="s">
         <v>22</v>
       </c>
@@ -4716,9 +6404,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="72"/>
-      <c r="B41" s="74"/>
+    <row r="41" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A41" s="75"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="26" t="s">
         <v>66</v>
       </c>
@@ -4726,15 +6414,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C42" s="10"/>
       <c r="D42" s="22"/>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="70" t="s">
+    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="64" t="s">
         <v>103</v>
       </c>
       <c r="C43" s="29" t="s">
@@ -4744,9 +6432,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="71"/>
-      <c r="B44" s="73"/>
+    <row r="44" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A44" s="74"/>
+      <c r="B44" s="71"/>
       <c r="C44" s="15" t="s">
         <v>20</v>
       </c>
@@ -4754,9 +6442,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="71"/>
-      <c r="B45" s="73"/>
+    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="74"/>
+      <c r="B45" s="71"/>
       <c r="C45" s="15" t="s">
         <v>22</v>
       </c>
@@ -4764,9 +6452,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="72"/>
-      <c r="B46" s="74"/>
+    <row r="46" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="75"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="26" t="s">
         <v>67</v>
       </c>
@@ -4774,11 +6462,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="70" t="s">
+    <row r="48" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A48" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="52" t="s">
+      <c r="B48" s="64" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="29" t="s">
@@ -4788,9 +6476,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A49" s="71"/>
-      <c r="B49" s="73"/>
+    <row r="49" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="74"/>
+      <c r="B49" s="71"/>
       <c r="C49" s="15" t="s">
         <v>20</v>
       </c>
@@ -4798,9 +6486,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="71"/>
-      <c r="B50" s="73"/>
+    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="74"/>
+      <c r="B50" s="71"/>
       <c r="C50" s="15" t="s">
         <v>22</v>
       </c>
@@ -4808,9 +6496,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="72"/>
-      <c r="B51" s="74"/>
+    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="75"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="26" t="s">
         <v>71</v>
       </c>
@@ -4818,11 +6506,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A53" s="70" t="s">
+    <row r="53" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="64" t="s">
         <v>105</v>
       </c>
       <c r="C53" s="29" t="s">
@@ -4832,9 +6520,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="71"/>
-      <c r="B54" s="73"/>
+    <row r="54" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="74"/>
+      <c r="B54" s="71"/>
       <c r="C54" s="15" t="s">
         <v>20</v>
       </c>
@@ -4842,9 +6530,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="71"/>
-      <c r="B55" s="73"/>
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="74"/>
+      <c r="B55" s="71"/>
       <c r="C55" s="15" t="s">
         <v>22</v>
       </c>
@@ -4852,9 +6540,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="72"/>
-      <c r="B56" s="74"/>
+    <row r="56" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="75"/>
+      <c r="B56" s="72"/>
       <c r="C56" s="26" t="s">
         <v>72</v>
       </c>
@@ -4862,11 +6550,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="70" t="s">
+    <row r="58" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="64" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="29" t="s">
@@ -4876,9 +6564,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="71"/>
-      <c r="B59" s="73"/>
+    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="74"/>
+      <c r="B59" s="71"/>
       <c r="C59" s="15" t="s">
         <v>20</v>
       </c>
@@ -4886,9 +6574,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="71"/>
-      <c r="B60" s="73"/>
+    <row r="60" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A60" s="74"/>
+      <c r="B60" s="71"/>
       <c r="C60" s="15" t="s">
         <v>22</v>
       </c>
@@ -4896,9 +6584,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="72"/>
-      <c r="B61" s="74"/>
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="75"/>
+      <c r="B61" s="72"/>
       <c r="C61" s="26" t="s">
         <v>75</v>
       </c>
@@ -4906,11 +6594,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="70" t="s">
+    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="64" t="s">
         <v>107</v>
       </c>
       <c r="C63" s="29" t="s">
@@ -4920,9 +6608,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="71"/>
-      <c r="B64" s="73"/>
+    <row r="64" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A64" s="74"/>
+      <c r="B64" s="71"/>
       <c r="C64" s="15" t="s">
         <v>20</v>
       </c>
@@ -4930,9 +6618,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="71"/>
-      <c r="B65" s="73"/>
+    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="74"/>
+      <c r="B65" s="71"/>
       <c r="C65" s="15" t="s">
         <v>22</v>
       </c>
@@ -4940,9 +6628,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="72"/>
-      <c r="B66" s="74"/>
+    <row r="66" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A66" s="75"/>
+      <c r="B66" s="72"/>
       <c r="C66" s="26" t="s">
         <v>78</v>
       </c>
@@ -4950,11 +6638,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="70" t="s">
+    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="64" t="s">
         <v>118</v>
       </c>
       <c r="C68" s="29" t="s">
@@ -4964,9 +6652,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="71"/>
-      <c r="B69" s="73"/>
+    <row r="69" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A69" s="74"/>
+      <c r="B69" s="71"/>
       <c r="C69" s="15" t="s">
         <v>20</v>
       </c>
@@ -4974,9 +6662,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="71"/>
-      <c r="B70" s="73"/>
+    <row r="70" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A70" s="74"/>
+      <c r="B70" s="71"/>
       <c r="C70" s="15" t="s">
         <v>22</v>
       </c>
@@ -4984,17 +6672,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="71"/>
-      <c r="B71" s="73"/>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="74"/>
+      <c r="B71" s="71"/>
       <c r="C71" s="21" t="s">
         <v>81</v>
       </c>
       <c r="D71" s="30"/>
     </row>
-    <row r="72" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="72"/>
-      <c r="B72" s="74"/>
+    <row r="72" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A72" s="75"/>
+      <c r="B72" s="72"/>
       <c r="C72" s="26" t="s">
         <v>58</v>
       </c>
@@ -5002,11 +6690,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="70" t="s">
+    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="52" t="s">
+      <c r="B74" s="64" t="s">
         <v>108</v>
       </c>
       <c r="C74" s="29" t="s">
@@ -5016,9 +6704,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A75" s="71"/>
-      <c r="B75" s="73"/>
+    <row r="75" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="74"/>
+      <c r="B75" s="71"/>
       <c r="C75" s="15" t="s">
         <v>20</v>
       </c>
@@ -5026,9 +6714,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="71"/>
-      <c r="B76" s="73"/>
+    <row r="76" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A76" s="74"/>
+      <c r="B76" s="71"/>
       <c r="C76" s="15" t="s">
         <v>22</v>
       </c>
@@ -5036,9 +6724,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="72"/>
-      <c r="B77" s="74"/>
+    <row r="77" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A77" s="75"/>
+      <c r="B77" s="72"/>
       <c r="C77" s="26" t="s">
         <v>83</v>
       </c>
@@ -5046,7 +6734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="55" t="s">
         <v>84</v>
       </c>
@@ -5060,7 +6748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A80" s="56"/>
       <c r="B80" s="68"/>
       <c r="C80" s="15" t="s">
@@ -5070,7 +6758,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A81" s="56"/>
       <c r="B81" s="68"/>
       <c r="C81" s="15" t="s">
@@ -5080,7 +6768,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A82" s="57"/>
       <c r="B82" s="69"/>
       <c r="C82" s="26" t="s">
@@ -5090,7 +6778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="55" t="s">
         <v>86</v>
       </c>
@@ -5104,7 +6792,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A85" s="56"/>
       <c r="B85" s="68"/>
       <c r="C85" s="15" t="s">
@@ -5114,7 +6802,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A86" s="56"/>
       <c r="B86" s="68"/>
       <c r="C86" s="15" t="s">
@@ -5124,7 +6812,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A87" s="57"/>
       <c r="B87" s="69"/>
       <c r="C87" s="26" t="s">
@@ -5134,7 +6822,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A89" s="55" t="s">
         <v>88</v>
       </c>
@@ -5148,7 +6836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A90" s="56"/>
       <c r="B90" s="68"/>
       <c r="C90" s="15" t="s">
@@ -5158,7 +6846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A91" s="56"/>
       <c r="B91" s="68"/>
       <c r="C91" s="15" t="s">
@@ -5168,7 +6856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A92" s="57"/>
       <c r="B92" s="69"/>
       <c r="C92" s="26" t="s">
@@ -5178,7 +6866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A94" s="55" t="s">
         <v>90</v>
       </c>
@@ -5192,7 +6880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A95" s="56"/>
       <c r="B95" s="68"/>
       <c r="C95" s="15" t="s">
@@ -5202,7 +6890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A96" s="56"/>
       <c r="B96" s="68"/>
       <c r="C96" s="15" t="s">
@@ -5212,7 +6900,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A97" s="57"/>
       <c r="B97" s="69"/>
       <c r="C97" s="26" t="s">
@@ -5222,7 +6910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A99" s="55" t="s">
         <v>92</v>
       </c>
@@ -5236,7 +6924,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A100" s="56"/>
       <c r="B100" s="68"/>
       <c r="C100" s="15" t="s">
@@ -5246,7 +6934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A101" s="56"/>
       <c r="B101" s="68"/>
       <c r="C101" s="15" t="s">
@@ -5256,7 +6944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A102" s="57"/>
       <c r="B102" s="69"/>
       <c r="C102" s="26" t="s">
@@ -5266,7 +6954,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A104" s="55" t="s">
         <v>119</v>
       </c>
@@ -5280,7 +6968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A105" s="56"/>
       <c r="B105" s="68"/>
       <c r="C105" s="15" t="s">
@@ -5290,7 +6978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A106" s="56"/>
       <c r="B106" s="68"/>
       <c r="C106" s="15" t="s">
@@ -5300,7 +6988,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A107" s="57"/>
       <c r="B107" s="69"/>
       <c r="C107" s="26" t="s">
@@ -5310,7 +6998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A109" s="55" t="s">
         <v>121</v>
       </c>
@@ -5324,7 +7012,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A110" s="56"/>
       <c r="B110" s="68"/>
       <c r="C110" s="15" t="s">
@@ -5334,7 +7022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A111" s="56"/>
       <c r="B111" s="68"/>
       <c r="C111" s="15" t="s">
@@ -5344,7 +7032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A112" s="56"/>
       <c r="B112" s="68"/>
       <c r="C112" s="21" t="s">
@@ -5352,7 +7040,7 @@
       </c>
       <c r="D112" s="30"/>
     </row>
-    <row r="113" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A113" s="57"/>
       <c r="B113" s="69"/>
       <c r="C113" s="26" t="s">
@@ -5362,7 +7050,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="55" t="s">
         <v>123</v>
       </c>
@@ -5376,7 +7064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A116" s="56"/>
       <c r="B116" s="68"/>
       <c r="C116" s="15" t="s">
@@ -5386,7 +7074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A117" s="56"/>
       <c r="B117" s="68"/>
       <c r="C117" s="15" t="s">
@@ -5396,7 +7084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A118" s="56"/>
       <c r="B118" s="68"/>
       <c r="C118" s="21" t="s">
@@ -5404,7 +7092,7 @@
       </c>
       <c r="D118" s="30"/>
     </row>
-    <row r="119" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A119" s="57"/>
       <c r="B119" s="69"/>
       <c r="C119" s="26" t="s">
@@ -5414,7 +7102,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A121" s="55" t="s">
         <v>128</v>
       </c>
@@ -5428,7 +7116,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A122" s="56"/>
       <c r="B122" s="68"/>
       <c r="C122" s="15" t="s">
@@ -5438,7 +7126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A123" s="56"/>
       <c r="B123" s="68"/>
       <c r="C123" s="15" t="s">
@@ -5448,7 +7136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A124" s="56"/>
       <c r="B124" s="68"/>
       <c r="C124" s="21" t="s">
@@ -5458,7 +7146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A125" s="57"/>
       <c r="B125" s="69"/>
       <c r="C125" s="26" t="s">
@@ -5468,10 +7156,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D126" s="22"/>
     </row>
-    <row r="127" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A127" s="55" t="s">
         <v>134</v>
       </c>
@@ -5485,7 +7173,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A128" s="56"/>
       <c r="B128" s="68"/>
       <c r="C128" s="15" t="s">
@@ -5495,7 +7183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A129" s="56"/>
       <c r="B129" s="68"/>
       <c r="C129" s="15" t="s">
@@ -5505,7 +7193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A130" s="57"/>
       <c r="B130" s="69"/>
       <c r="C130" s="26" t="s">
@@ -5515,7 +7203,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A132" s="55" t="s">
         <v>136</v>
       </c>
@@ -5529,7 +7217,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A133" s="56"/>
       <c r="B133" s="68"/>
       <c r="C133" s="15" t="s">
@@ -5539,7 +7227,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A134" s="56"/>
       <c r="B134" s="68"/>
       <c r="C134" s="15" t="s">
@@ -5549,7 +7237,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="56"/>
       <c r="B135" s="68"/>
       <c r="C135" s="21" t="s">
@@ -5557,7 +7245,7 @@
       </c>
       <c r="D135" s="30"/>
     </row>
-    <row r="136" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A136" s="57"/>
       <c r="B136" s="69"/>
       <c r="C136" s="26" t="s">
@@ -5567,7 +7255,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A138" s="55" t="s">
         <v>138</v>
       </c>
@@ -5581,7 +7269,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A139" s="56"/>
       <c r="B139" s="68"/>
       <c r="C139" s="15" t="s">
@@ -5591,7 +7279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A140" s="56"/>
       <c r="B140" s="68"/>
       <c r="C140" s="15" t="s">
@@ -5601,7 +7289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A141" s="57"/>
       <c r="B141" s="69"/>
       <c r="C141" s="26" t="s">
@@ -5611,11 +7299,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="142" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C142" s="10"/>
       <c r="D142" s="22"/>
     </row>
-    <row r="143" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A143" s="55" t="s">
         <v>179</v>
       </c>
@@ -5629,7 +7317,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="144" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A144" s="56"/>
       <c r="B144" s="68"/>
       <c r="C144" s="15" t="s">
@@ -5639,7 +7327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="145" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A145" s="56"/>
       <c r="B145" s="68"/>
       <c r="C145" s="15" t="s">
@@ -5649,7 +7337,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="146" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A146" s="57"/>
       <c r="B146" s="69"/>
       <c r="C146" s="26" t="s">
@@ -5659,11 +7347,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="147" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C147" s="10"/>
       <c r="D147" s="22"/>
     </row>
-    <row r="148" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A148" s="55" t="s">
         <v>180</v>
       </c>
@@ -5677,7 +7365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="149" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A149" s="56"/>
       <c r="B149" s="68"/>
       <c r="C149" s="15" t="s">
@@ -5687,7 +7375,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A150" s="56"/>
       <c r="B150" s="68"/>
       <c r="C150" s="15" t="s">
@@ -5697,7 +7385,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A151" s="57"/>
       <c r="B151" s="69"/>
       <c r="C151" s="26" t="s">
@@ -5707,7 +7395,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="152" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A152" s="55" t="s">
         <v>182</v>
       </c>
@@ -5721,7 +7409,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A153" s="56"/>
       <c r="B153" s="68"/>
       <c r="C153" s="15" t="s">
@@ -5731,7 +7419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A154" s="56"/>
       <c r="B154" s="68"/>
       <c r="C154" s="15" t="s">
@@ -5741,7 +7429,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="155" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" s="9" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A155" s="57"/>
       <c r="B155" s="69"/>
       <c r="C155" s="26" t="s">
@@ -5751,11 +7439,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="156" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C156" s="10"/>
       <c r="D156" s="22"/>
     </row>
-    <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A157" s="55" t="s">
         <v>141</v>
       </c>
@@ -5769,7 +7457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A158" s="56"/>
       <c r="B158" s="68"/>
       <c r="C158" s="38" t="s">
@@ -5779,7 +7467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A159" s="56"/>
       <c r="B159" s="68"/>
       <c r="C159" s="38" t="s">
@@ -5789,7 +7477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A160" s="57"/>
       <c r="B160" s="69"/>
       <c r="C160" s="41" t="s">
@@ -5799,7 +7487,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A162" s="67" t="s">
         <v>144</v>
       </c>
@@ -5813,7 +7501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A163" s="68"/>
       <c r="B163" s="68"/>
       <c r="C163" s="15" t="s">
@@ -5823,7 +7511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A164" s="68"/>
       <c r="B164" s="68"/>
       <c r="C164" s="43" t="s">
@@ -5833,10 +7521,10 @@
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D165" s="22"/>
     </row>
-    <row r="166" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A166" s="55" t="s">
         <v>146</v>
       </c>
@@ -5850,7 +7538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A167" s="56"/>
       <c r="B167" s="68"/>
       <c r="C167" s="15" t="s">
@@ -5860,7 +7548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A168" s="56"/>
       <c r="B168" s="68"/>
       <c r="C168" s="15" t="s">
@@ -5870,7 +7558,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A169" s="57"/>
       <c r="B169" s="69"/>
       <c r="C169" s="26" t="s">
@@ -5880,10 +7568,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D170" s="22"/>
     </row>
-    <row r="171" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A171" s="55" t="s">
         <v>149</v>
       </c>
@@ -5897,7 +7585,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A172" s="56"/>
       <c r="B172" s="68"/>
       <c r="C172" s="15" t="s">
@@ -5907,7 +7595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A173" s="56"/>
       <c r="B173" s="68"/>
       <c r="C173" s="15" t="s">
@@ -5917,7 +7605,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A174" s="57"/>
       <c r="B174" s="69"/>
       <c r="C174" s="26" t="s">
@@ -5927,7 +7615,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A176" s="55" t="s">
         <v>152</v>
       </c>
@@ -5941,7 +7629,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A177" s="56"/>
       <c r="B177" s="68"/>
       <c r="C177" s="15" t="s">
@@ -5951,7 +7639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A178" s="57"/>
       <c r="B178" s="69"/>
       <c r="C178" s="43" t="s">
@@ -5961,10 +7649,10 @@
         <v>193</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D179" s="22"/>
     </row>
-    <row r="180" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A180" s="55" t="s">
         <v>153</v>
       </c>
@@ -5978,7 +7666,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A181" s="56"/>
       <c r="B181" s="68"/>
       <c r="C181" s="15" t="s">
@@ -5988,7 +7676,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A182" s="56"/>
       <c r="B182" s="68"/>
       <c r="C182" s="15" t="s">
@@ -5998,7 +7686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A183" s="57"/>
       <c r="B183" s="69"/>
       <c r="C183" s="26" t="s">
@@ -6008,10 +7696,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D184" s="22"/>
     </row>
-    <row r="185" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A185" s="55" t="s">
         <v>161</v>
       </c>
@@ -6025,7 +7713,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A186" s="56"/>
       <c r="B186" s="68"/>
       <c r="C186" s="15" t="s">
@@ -6035,7 +7723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A187" s="56"/>
       <c r="B187" s="68"/>
       <c r="C187" s="15" t="s">
@@ -6045,7 +7733,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A188" s="57"/>
       <c r="B188" s="69"/>
       <c r="C188" s="26" t="s">
@@ -6055,7 +7743,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A190" s="67" t="s">
         <v>163</v>
       </c>
@@ -6069,7 +7757,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A191" s="68"/>
       <c r="B191" s="68"/>
       <c r="C191" s="15" t="s">
@@ -6079,7 +7767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A192" s="68"/>
       <c r="B192" s="68"/>
       <c r="C192" s="43" t="s">
@@ -6089,11 +7777,11 @@
         <v>204</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C193" s="27"/>
       <c r="D193" s="20"/>
     </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A194" s="67" t="s">
         <v>205</v>
       </c>
@@ -6107,7 +7795,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A195" s="68"/>
       <c r="B195" s="68"/>
       <c r="C195" s="15" t="s">
@@ -6117,7 +7805,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A196" s="68"/>
       <c r="B196" s="68"/>
       <c r="C196" s="15" t="s">
@@ -6127,7 +7815,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A197" s="69"/>
       <c r="B197" s="69"/>
       <c r="C197" s="26" t="s">
@@ -6137,8 +7825,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A199" s="64" t="s">
+    <row r="199" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A199" s="61" t="s">
         <v>208</v>
       </c>
       <c r="B199" s="67" t="s">
@@ -6151,8 +7839,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A200" s="65"/>
+    <row r="200" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A200" s="62"/>
       <c r="B200" s="68"/>
       <c r="C200" s="15" t="s">
         <v>20</v>
@@ -6161,8 +7849,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A201" s="65"/>
+    <row r="201" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A201" s="62"/>
       <c r="B201" s="68"/>
       <c r="C201" s="15" t="s">
         <v>22</v>
@@ -6171,8 +7859,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="65"/>
+    <row r="202" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A202" s="62"/>
       <c r="B202" s="68"/>
       <c r="C202" s="21" t="s">
         <v>209</v>
@@ -6181,8 +7869,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="66"/>
+    <row r="203" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A203" s="63"/>
       <c r="B203" s="69"/>
       <c r="C203" s="26" t="s">
         <v>211</v>
@@ -6191,7 +7879,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A205" s="55" t="s">
         <v>213</v>
       </c>
@@ -6205,7 +7893,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A206" s="56"/>
       <c r="B206" s="68"/>
       <c r="C206" s="15" t="s">
@@ -6215,7 +7903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A207" s="56"/>
       <c r="B207" s="68"/>
       <c r="C207" s="15" t="s">
@@ -6225,7 +7913,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A208" s="56"/>
       <c r="B208" s="68"/>
       <c r="C208" s="21" t="s">
@@ -6235,7 +7923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A209" s="57"/>
       <c r="B209" s="69"/>
       <c r="C209" s="26" t="s">
@@ -6245,8 +7933,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="64" t="s">
+    <row r="211" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A211" s="61" t="s">
         <v>218</v>
       </c>
       <c r="B211" s="67" t="s">
@@ -6259,8 +7947,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A212" s="65"/>
+    <row r="212" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A212" s="62"/>
       <c r="B212" s="68"/>
       <c r="C212" s="15" t="s">
         <v>20</v>
@@ -6269,8 +7957,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="65"/>
+    <row r="213" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A213" s="62"/>
       <c r="B213" s="68"/>
       <c r="C213" s="15" t="s">
         <v>22</v>
@@ -6279,8 +7967,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A214" s="65"/>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A214" s="62"/>
       <c r="B214" s="68"/>
       <c r="C214" s="21" t="s">
         <v>219</v>
@@ -6289,8 +7977,8 @@
         <v>220</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A215" s="66"/>
+    <row r="215" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A215" s="63"/>
       <c r="B215" s="69"/>
       <c r="C215" s="26" t="s">
         <v>223</v>
@@ -6299,8 +7987,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="64" t="s">
+    <row r="217" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A217" s="61" t="s">
         <v>224</v>
       </c>
       <c r="B217" s="67" t="s">
@@ -6313,8 +8001,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A218" s="65"/>
+    <row r="218" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A218" s="62"/>
       <c r="B218" s="68"/>
       <c r="C218" s="15" t="s">
         <v>20</v>
@@ -6323,8 +8011,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A219" s="65"/>
+    <row r="219" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A219" s="62"/>
       <c r="B219" s="68"/>
       <c r="C219" s="15" t="s">
         <v>22</v>
@@ -6333,8 +8021,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="65"/>
+    <row r="220" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A220" s="62"/>
       <c r="B220" s="68"/>
       <c r="C220" s="21" t="s">
         <v>226</v>
@@ -6343,8 +8031,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="66"/>
+    <row r="221" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A221" s="63"/>
       <c r="B221" s="69"/>
       <c r="C221" s="26" t="s">
         <v>225</v>
@@ -6353,7 +8041,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A223" s="67" t="s">
         <v>237</v>
       </c>
@@ -6367,7 +8055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A224" s="68"/>
       <c r="B224" s="68"/>
       <c r="C224" s="15" t="s">
@@ -6377,7 +8065,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A225" s="68"/>
       <c r="B225" s="68"/>
       <c r="C225" s="15" t="s">
@@ -6387,7 +8075,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A226" s="69"/>
       <c r="B226" s="69"/>
       <c r="C226" s="26" t="s">
@@ -6397,8 +8085,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A228" s="64" t="s">
+    <row r="228" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A228" s="61" t="s">
         <v>240</v>
       </c>
       <c r="B228" s="67" t="s">
@@ -6411,8 +8099,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A229" s="65"/>
+    <row r="229" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A229" s="62"/>
       <c r="B229" s="68"/>
       <c r="C229" s="15" t="s">
         <v>20</v>
@@ -6421,8 +8109,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A230" s="66"/>
+    <row r="230" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A230" s="63"/>
       <c r="B230" s="69"/>
       <c r="C230" s="43" t="s">
         <v>22</v>
@@ -6431,8 +8119,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="64" t="s">
+    <row r="232" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A232" s="61" t="s">
         <v>242</v>
       </c>
       <c r="B232" s="67" t="s">
@@ -6445,8 +8133,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A233" s="65"/>
+    <row r="233" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A233" s="62"/>
       <c r="B233" s="68"/>
       <c r="C233" s="15" t="s">
         <v>20</v>
@@ -6455,8 +8143,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A234" s="65"/>
+    <row r="234" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A234" s="62"/>
       <c r="B234" s="68"/>
       <c r="C234" s="15" t="s">
         <v>22</v>
@@ -6465,8 +8153,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A235" s="66"/>
+    <row r="235" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A235" s="63"/>
       <c r="B235" s="69"/>
       <c r="C235" s="26" t="s">
         <v>243</v>
@@ -6475,11 +8163,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C236" s="27"/>
     </row>
-    <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A237" s="64" t="s">
+    <row r="237" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A237" s="61" t="s">
         <v>245</v>
       </c>
       <c r="B237" s="67" t="s">
@@ -6492,8 +8180,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A238" s="65"/>
+    <row r="238" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A238" s="62"/>
       <c r="B238" s="68"/>
       <c r="C238" s="15" t="s">
         <v>20</v>
@@ -6502,8 +8190,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A239" s="65"/>
+    <row r="239" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A239" s="62"/>
       <c r="B239" s="68"/>
       <c r="C239" s="15" t="s">
         <v>22</v>
@@ -6512,8 +8200,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="66"/>
+    <row r="240" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A240" s="63"/>
       <c r="B240" s="69"/>
       <c r="C240" s="26" t="s">
         <v>246</v>
@@ -6522,8 +8210,8 @@
         <v>247</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="64" t="s">
+    <row r="242" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A242" s="61" t="s">
         <v>248</v>
       </c>
       <c r="B242" s="67" t="s">
@@ -6536,8 +8224,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" s="65"/>
+    <row r="243" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A243" s="62"/>
       <c r="B243" s="68"/>
       <c r="C243" s="15" t="s">
         <v>20</v>
@@ -6546,8 +8234,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="65"/>
+    <row r="244" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A244" s="62"/>
       <c r="B244" s="68"/>
       <c r="C244" s="15" t="s">
         <v>22</v>
@@ -6556,8 +8244,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="66"/>
+    <row r="245" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A245" s="63"/>
       <c r="B245" s="69"/>
       <c r="C245" s="43" t="s">
         <v>249</v>
@@ -6566,8 +8254,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A247" s="64" t="s">
+    <row r="247" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A247" s="61" t="s">
         <v>251</v>
       </c>
       <c r="B247" s="67" t="s">
@@ -6580,8 +8268,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="65"/>
+    <row r="248" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A248" s="62"/>
       <c r="B248" s="68"/>
       <c r="C248" s="15" t="s">
         <v>20</v>
@@ -6590,8 +8278,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="65"/>
+    <row r="249" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A249" s="62"/>
       <c r="B249" s="68"/>
       <c r="C249" s="15" t="s">
         <v>22</v>
@@ -6600,8 +8288,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A250" s="66"/>
+    <row r="250" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A250" s="63"/>
       <c r="B250" s="69"/>
       <c r="C250" s="26" t="s">
         <v>252</v>
@@ -6610,8 +8298,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="64" t="s">
+    <row r="252" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A252" s="61" t="s">
         <v>263</v>
       </c>
       <c r="B252" s="67" t="s">
@@ -6624,8 +8312,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A253" s="65"/>
+    <row r="253" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A253" s="62"/>
       <c r="B253" s="68"/>
       <c r="C253" s="15" t="s">
         <v>20</v>
@@ -6634,8 +8322,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A254" s="65"/>
+    <row r="254" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A254" s="62"/>
       <c r="B254" s="68"/>
       <c r="C254" s="15" t="s">
         <v>22</v>
@@ -6644,8 +8332,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="66"/>
+    <row r="255" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A255" s="63"/>
       <c r="B255" s="69"/>
       <c r="C255" s="26" t="s">
         <v>265</v>
@@ -6654,8 +8342,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A257" s="64" t="s">
+    <row r="257" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A257" s="61" t="s">
         <v>266</v>
       </c>
       <c r="B257" s="67" t="s">
@@ -6668,8 +8356,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A258" s="65"/>
+    <row r="258" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A258" s="62"/>
       <c r="B258" s="68"/>
       <c r="C258" s="15" t="s">
         <v>20</v>
@@ -6678,8 +8366,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A259" s="65"/>
+    <row r="259" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A259" s="62"/>
       <c r="B259" s="68"/>
       <c r="C259" s="15" t="s">
         <v>22</v>
@@ -6688,8 +8376,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="66"/>
+    <row r="260" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A260" s="63"/>
       <c r="B260" s="69"/>
       <c r="C260" s="26" t="s">
         <v>267</v>
@@ -6698,8 +8386,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A262" s="64" t="s">
+    <row r="262" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A262" s="61" t="s">
         <v>269</v>
       </c>
       <c r="B262" s="67" t="s">
@@ -6712,8 +8400,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A263" s="65"/>
+    <row r="263" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A263" s="62"/>
       <c r="B263" s="68"/>
       <c r="C263" s="15" t="s">
         <v>20</v>
@@ -6722,8 +8410,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A264" s="65"/>
+    <row r="264" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A264" s="62"/>
       <c r="B264" s="68"/>
       <c r="C264" s="15" t="s">
         <v>22</v>
@@ -6732,8 +8420,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A265" s="66"/>
+    <row r="265" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A265" s="63"/>
       <c r="B265" s="69"/>
       <c r="C265" s="26" t="s">
         <v>270</v>
@@ -6742,8 +8430,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A267" s="64" t="s">
+    <row r="267" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A267" s="61" t="s">
         <v>272</v>
       </c>
       <c r="B267" s="67" t="s">
@@ -6756,8 +8444,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A268" s="65"/>
+    <row r="268" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A268" s="62"/>
       <c r="B268" s="68"/>
       <c r="C268" s="15" t="s">
         <v>20</v>
@@ -6766,8 +8454,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A269" s="65"/>
+    <row r="269" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A269" s="62"/>
       <c r="B269" s="68"/>
       <c r="C269" s="15" t="s">
         <v>22</v>
@@ -6776,8 +8464,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A270" s="66"/>
+    <row r="270" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A270" s="63"/>
       <c r="B270" s="69"/>
       <c r="C270" s="26" t="s">
         <v>273</v>
@@ -6786,8 +8474,8 @@
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A272" s="64" t="s">
+    <row r="272" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A272" s="61" t="s">
         <v>272</v>
       </c>
       <c r="B272" s="67" t="s">
@@ -6800,8 +8488,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A273" s="65"/>
+    <row r="273" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A273" s="62"/>
       <c r="B273" s="68"/>
       <c r="C273" s="15" t="s">
         <v>20</v>
@@ -6810,8 +8498,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A274" s="65"/>
+    <row r="274" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A274" s="62"/>
       <c r="B274" s="68"/>
       <c r="C274" s="15" t="s">
         <v>22</v>
@@ -6820,8 +8508,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A275" s="66"/>
+    <row r="275" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A275" s="63"/>
       <c r="B275" s="69"/>
       <c r="C275" s="26" t="s">
         <v>274</v>
@@ -6830,11 +8518,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D276" s="9"/>
     </row>
-    <row r="277" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A277" s="64" t="s">
+    <row r="277" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A277" s="61" t="s">
         <v>275</v>
       </c>
       <c r="B277" s="67" t="s">
@@ -6847,8 +8535,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A278" s="65"/>
+    <row r="278" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A278" s="62"/>
       <c r="B278" s="68"/>
       <c r="C278" s="15" t="s">
         <v>20</v>
@@ -6857,8 +8545,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A279" s="65"/>
+    <row r="279" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A279" s="62"/>
       <c r="B279" s="68"/>
       <c r="C279" s="15" t="s">
         <v>22</v>
@@ -6867,8 +8555,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A280" s="66"/>
+    <row r="280" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A280" s="63"/>
       <c r="B280" s="69"/>
       <c r="C280" s="26" t="s">
         <v>276</v>
@@ -6877,8 +8565,8 @@
         <v>277</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A282" s="64" t="s">
+    <row r="282" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A282" s="61" t="s">
         <v>278</v>
       </c>
       <c r="B282" s="67" t="s">
@@ -6891,8 +8579,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A283" s="65"/>
+    <row r="283" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A283" s="62"/>
       <c r="B283" s="68"/>
       <c r="C283" s="15" t="s">
         <v>20</v>
@@ -6901,8 +8589,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A284" s="65"/>
+    <row r="284" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A284" s="62"/>
       <c r="B284" s="68"/>
       <c r="C284" s="15" t="s">
         <v>22</v>
@@ -6911,8 +8599,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A285" s="66"/>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A285" s="63"/>
       <c r="B285" s="69"/>
       <c r="C285" s="49" t="s">
         <v>279</v>
@@ -6921,8 +8609,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A287" s="64" t="s">
+    <row r="287" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A287" s="61" t="s">
         <v>281</v>
       </c>
       <c r="B287" s="67" t="s">
@@ -6935,8 +8623,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A288" s="65"/>
+    <row r="288" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A288" s="62"/>
       <c r="B288" s="68"/>
       <c r="C288" s="15" t="s">
         <v>20</v>
@@ -6945,8 +8633,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A289" s="65"/>
+    <row r="289" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A289" s="62"/>
       <c r="B289" s="68"/>
       <c r="C289" s="15" t="s">
         <v>22</v>
@@ -6955,8 +8643,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A290" s="66"/>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A290" s="63"/>
       <c r="B290" s="69"/>
       <c r="C290" s="49" t="s">
         <v>282</v>
@@ -6965,11 +8653,11 @@
         <v>283</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D291" s="9"/>
     </row>
-    <row r="292" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A292" s="64" t="s">
+    <row r="292" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A292" s="61" t="s">
         <v>289</v>
       </c>
       <c r="B292" s="67" t="s">
@@ -6982,8 +8670,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A293" s="65"/>
+    <row r="293" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A293" s="62"/>
       <c r="B293" s="68"/>
       <c r="C293" s="15" t="s">
         <v>20</v>
@@ -6992,8 +8680,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A294" s="65"/>
+    <row r="294" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A294" s="62"/>
       <c r="B294" s="68"/>
       <c r="C294" s="15" t="s">
         <v>22</v>
@@ -7002,8 +8690,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A295" s="66"/>
+    <row r="295" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A295" s="63"/>
       <c r="B295" s="69"/>
       <c r="C295" s="26" t="s">
         <v>290</v>
@@ -7012,8 +8700,8 @@
         <v>291</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A297" s="64" t="s">
+    <row r="297" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A297" s="61" t="s">
         <v>292</v>
       </c>
       <c r="B297" s="67" t="s">
@@ -7026,8 +8714,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A298" s="65"/>
+    <row r="298" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A298" s="62"/>
       <c r="B298" s="68"/>
       <c r="C298" s="15" t="s">
         <v>20</v>
@@ -7036,8 +8724,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A299" s="66"/>
+    <row r="299" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A299" s="63"/>
       <c r="B299" s="69"/>
       <c r="C299" s="43" t="s">
         <v>22</v>
@@ -7046,8 +8734,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A301" s="64" t="s">
+    <row r="301" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A301" s="61" t="s">
         <v>294</v>
       </c>
       <c r="B301" s="67" t="s">
@@ -7060,8 +8748,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A302" s="65"/>
+    <row r="302" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A302" s="62"/>
       <c r="B302" s="68"/>
       <c r="C302" s="15" t="s">
         <v>20</v>
@@ -7070,8 +8758,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A303" s="65"/>
+    <row r="303" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A303" s="62"/>
       <c r="B303" s="68"/>
       <c r="C303" s="15" t="s">
         <v>22</v>
@@ -7080,8 +8768,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A304" s="66"/>
+    <row r="304" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A304" s="63"/>
       <c r="B304" s="69"/>
       <c r="C304" s="26" t="s">
         <v>295</v>
@@ -7090,8 +8778,8 @@
         <v>296</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A306" s="64" t="s">
+    <row r="306" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A306" s="61" t="s">
         <v>300</v>
       </c>
       <c r="B306" s="67" t="s">
@@ -7104,8 +8792,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A307" s="65"/>
+    <row r="307" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A307" s="62"/>
       <c r="B307" s="68"/>
       <c r="C307" s="15" t="s">
         <v>20</v>
@@ -7114,8 +8802,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A308" s="65"/>
+    <row r="308" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A308" s="62"/>
       <c r="B308" s="68"/>
       <c r="C308" s="15" t="s">
         <v>22</v>
@@ -7124,8 +8812,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A309" s="66"/>
+    <row r="309" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A309" s="63"/>
       <c r="B309" s="69"/>
       <c r="C309" s="26" t="s">
         <v>301</v>
@@ -7134,11 +8822,105 @@
         <v>302</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D310" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="118">
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="A180:A183"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="B171:B174"/>
+    <mergeCell ref="A171:A174"/>
+    <mergeCell ref="B148:B151"/>
+    <mergeCell ref="A148:A151"/>
+    <mergeCell ref="B152:B155"/>
+    <mergeCell ref="A152:A155"/>
+    <mergeCell ref="B157:B160"/>
+    <mergeCell ref="A157:A160"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="A143:A146"/>
+    <mergeCell ref="B166:B169"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A104:A107"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B121:B125"/>
+    <mergeCell ref="A121:A125"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B89:B92"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="A53:A56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B211:B215"/>
+    <mergeCell ref="A211:A215"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="B194:B197"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="B199:B203"/>
+    <mergeCell ref="A199:A203"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A217:A221"/>
+    <mergeCell ref="B217:B221"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="B252:B255"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B223:B226"/>
+    <mergeCell ref="A223:A226"/>
+    <mergeCell ref="A228:A230"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="B232:B235"/>
+    <mergeCell ref="B242:B245"/>
+    <mergeCell ref="A242:A245"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="A247:A250"/>
     <mergeCell ref="B205:B209"/>
     <mergeCell ref="A205:A209"/>
     <mergeCell ref="B297:B299"/>
@@ -7163,100 +8945,6 @@
     <mergeCell ref="A262:A265"/>
     <mergeCell ref="B267:B270"/>
     <mergeCell ref="A267:A270"/>
-    <mergeCell ref="A217:A221"/>
-    <mergeCell ref="B217:B221"/>
-    <mergeCell ref="B237:B240"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="B252:B255"/>
-    <mergeCell ref="A252:A255"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B223:B226"/>
-    <mergeCell ref="A223:A226"/>
-    <mergeCell ref="A228:A230"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="B232:B235"/>
-    <mergeCell ref="B242:B245"/>
-    <mergeCell ref="A242:A245"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="A247:A250"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B211:B215"/>
-    <mergeCell ref="A211:A215"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="A190:A192"/>
-    <mergeCell ref="B194:B197"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="B199:B203"/>
-    <mergeCell ref="A199:A203"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B89:B92"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="A104:A107"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="B121:B125"/>
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="A143:A146"/>
-    <mergeCell ref="B166:B169"/>
-    <mergeCell ref="A166:A169"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="A180:A183"/>
-    <mergeCell ref="B185:B188"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="B171:B174"/>
-    <mergeCell ref="A171:A174"/>
-    <mergeCell ref="B148:B151"/>
-    <mergeCell ref="A148:A151"/>
-    <mergeCell ref="B152:B155"/>
-    <mergeCell ref="A152:A155"/>
-    <mergeCell ref="B157:B160"/>
-    <mergeCell ref="A157:A160"/>
-    <mergeCell ref="A162:A164"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7271,16 +8959,16 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="9"/>
-    <col min="2" max="2" width="14.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.1796875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="71.90625" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="8.9296875" style="9"/>
+    <col min="2" max="2" width="14.06640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.19921875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="71.9296875" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="8.9296875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7294,86 +8982,86 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="52" t="s">
         <v>370</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="56"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="56"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="56"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="16" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="56"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="16" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="56"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="16" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A9" s="56"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="16" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="56"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="16" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="57"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="19" t="s">
         <v>358</v>
       </c>
@@ -7393,23 +9081,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A942097-A80F-45D0-8A0F-6A96917D0F79}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="42.81640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="41.08984375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="47.54296875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="2" max="2" width="42.796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="41.06640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="47.53125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.9296875" customWidth="1"/>
+    <col min="6" max="6" width="13.46484375" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="8" max="8" width="13.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>11</v>
       </c>
@@ -7435,8 +9123,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="67" t="s">
@@ -7449,8 +9137,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="65"/>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="62"/>
       <c r="B3" s="68"/>
       <c r="C3" s="15" t="s">
         <v>20</v>
@@ -7459,8 +9147,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="65"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="62"/>
       <c r="B4" s="68"/>
       <c r="C4" s="15" t="s">
         <v>303</v>
@@ -7469,36 +9157,36 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
+    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A5" s="62"/>
       <c r="B5" s="68"/>
       <c r="C5" s="21"/>
       <c r="D5" s="16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="65"/>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="62"/>
       <c r="B6" s="68"/>
       <c r="C6" s="21"/>
       <c r="D6" s="16" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="66"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="63"/>
       <c r="B7" s="69"/>
       <c r="C7" s="43"/>
       <c r="D7" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C8" s="15"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="61" t="s">
         <v>305</v>
       </c>
       <c r="B9" s="67" t="s">
@@ -7511,8 +9199,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="65"/>
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="62"/>
       <c r="B10" s="68"/>
       <c r="C10" s="15" t="s">
         <v>20</v>
@@ -7521,8 +9209,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="65"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="62"/>
       <c r="B11" s="68"/>
       <c r="C11" s="15" t="s">
         <v>303</v>
@@ -7531,8 +9219,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="66"/>
+    <row r="12" spans="1:8" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="63"/>
       <c r="B12" s="69"/>
       <c r="C12" s="26" t="s">
         <v>307</v>
@@ -7541,8 +9229,8 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="61" t="s">
         <v>311</v>
       </c>
       <c r="B14" s="67" t="s">
@@ -7555,8 +9243,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="65"/>
+    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="62"/>
       <c r="B15" s="68"/>
       <c r="C15" s="15" t="s">
         <v>20</v>
@@ -7565,8 +9253,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="65"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="62"/>
       <c r="B16" s="68"/>
       <c r="C16" s="15" t="s">
         <v>303</v>
@@ -7575,8 +9263,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="65"/>
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="62"/>
       <c r="B17" s="68"/>
       <c r="C17" s="25" t="s">
         <v>312</v>
@@ -7585,8 +9273,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="62"/>
       <c r="B18" s="68"/>
       <c r="C18" s="21" t="s">
         <v>314</v>
@@ -7595,8 +9283,8 @@
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="62"/>
       <c r="B19" s="68"/>
       <c r="C19" s="21" t="s">
         <v>316</v>
@@ -7605,8 +9293,8 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="62"/>
       <c r="B20" s="68"/>
       <c r="C20" s="21" t="s">
         <v>318</v>
@@ -7615,8 +9303,8 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="65"/>
+    <row r="21" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="62"/>
       <c r="B21" s="68"/>
       <c r="C21" s="21" t="s">
         <v>330</v>
@@ -7625,8 +9313,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="62"/>
       <c r="B22" s="68"/>
       <c r="C22" s="21" t="s">
         <v>331</v>
@@ -7635,8 +9323,8 @@
         <v>320</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="65"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="62"/>
       <c r="B23" s="68"/>
       <c r="C23" s="21" t="s">
         <v>332</v>
@@ -7645,8 +9333,8 @@
         <v>321</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="62"/>
       <c r="B24" s="68"/>
       <c r="C24" s="21" t="s">
         <v>323</v>
@@ -7655,8 +9343,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="65"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="62"/>
       <c r="B25" s="68"/>
       <c r="C25" s="21" t="s">
         <v>333</v>
@@ -7665,8 +9353,8 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="65"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="62"/>
       <c r="B26" s="68"/>
       <c r="C26" s="21" t="s">
         <v>334</v>
@@ -7675,8 +9363,8 @@
         <v>325</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="62"/>
       <c r="B27" s="68"/>
       <c r="C27" s="21" t="s">
         <v>335</v>
@@ -7685,8 +9373,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="65"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="62"/>
       <c r="B28" s="68"/>
       <c r="C28" s="21" t="s">
         <v>336</v>
@@ -7695,8 +9383,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="65"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="62"/>
       <c r="B29" s="68"/>
       <c r="C29" s="21" t="s">
         <v>337</v>
@@ -7705,14 +9393,14 @@
         <v>328</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="65"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="62"/>
       <c r="B30" s="68"/>
       <c r="C30" s="21"/>
       <c r="D30" s="16"/>
     </row>
-    <row r="31" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="63"/>
       <c r="B31" s="69"/>
       <c r="C31" s="26" t="s">
         <v>338</v>
@@ -7721,8 +9409,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="64" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="61" t="s">
         <v>341</v>
       </c>
       <c r="B33" s="67" t="s">
@@ -7735,8 +9423,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="65"/>
+    <row r="34" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="62"/>
       <c r="B34" s="68"/>
       <c r="C34" s="15" t="s">
         <v>20</v>
@@ -7745,8 +9433,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="65"/>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="62"/>
       <c r="B35" s="68"/>
       <c r="C35" s="15" t="s">
         <v>303</v>
@@ -7755,8 +9443,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="65"/>
+    <row r="36" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="62"/>
       <c r="B36" s="68"/>
       <c r="C36" s="25" t="s">
         <v>312</v>
@@ -7765,8 +9453,8 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="66"/>
+    <row r="37" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="63"/>
       <c r="B37" s="69"/>
       <c r="C37" s="26" t="s">
         <v>342</v>
@@ -7775,8 +9463,8 @@
         <v>343</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="64" t="s">
+    <row r="40" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="61" t="s">
         <v>344</v>
       </c>
       <c r="B40" s="67" t="s">
@@ -7789,8 +9477,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="65"/>
+    <row r="41" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="62"/>
       <c r="B41" s="68"/>
       <c r="C41" s="15" t="s">
         <v>20</v>
@@ -7799,8 +9487,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="65"/>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="62"/>
       <c r="B42" s="68"/>
       <c r="C42" s="15" t="s">
         <v>303</v>
@@ -7809,8 +9497,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="65"/>
+    <row r="43" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A43" s="62"/>
       <c r="B43" s="68"/>
       <c r="C43" s="21" t="s">
         <v>345</v>
@@ -7819,14 +9507,14 @@
         <v>346</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="65"/>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="62"/>
       <c r="B44" s="68"/>
       <c r="C44" s="21"/>
       <c r="D44" s="16"/>
     </row>
-    <row r="45" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="65"/>
+    <row r="45" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="62"/>
       <c r="B45" s="68"/>
       <c r="C45" s="25" t="s">
         <v>348</v>
@@ -7835,33 +9523,33 @@
         <v>353</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="65"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="62"/>
       <c r="B46" s="68"/>
       <c r="C46" s="21"/>
       <c r="D46" s="16" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="66"/>
+    <row r="47" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="63"/>
       <c r="B47" s="69"/>
       <c r="C47" s="26"/>
       <c r="D47" s="19" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="50"/>
       <c r="B48" s="51"/>
       <c r="C48" s="21"/>
       <c r="D48" s="16"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="52" t="s">
         <v>349</v>
       </c>
       <c r="C49" s="24" t="s">
@@ -7871,9 +9559,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="56"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="53"/>
       <c r="C50" s="15" t="s">
         <v>20</v>
       </c>
@@ -7881,9 +9569,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="56"/>
-      <c r="B51" s="62"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="15" t="s">
         <v>303</v>
       </c>
@@ -7891,9 +9579,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="56"/>
-      <c r="B52" s="62"/>
+      <c r="B52" s="53"/>
       <c r="C52" s="21" t="s">
         <v>345</v>
       </c>
@@ -7901,9 +9589,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="56"/>
-      <c r="B53" s="62"/>
+      <c r="B53" s="53"/>
       <c r="C53" s="21" t="s">
         <v>351</v>
       </c>
@@ -7911,29 +9599,29 @@
         <v>354</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="56"/>
-      <c r="B54" s="62"/>
+      <c r="B54" s="53"/>
       <c r="C54" s="21"/>
       <c r="D54" s="16" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A55" s="57"/>
-      <c r="B55" s="63"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="26"/>
       <c r="D55" s="19" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
     </row>
-    <row r="58" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A58" s="64" t="s">
+    <row r="58" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A58" s="61" t="s">
         <v>19</v>
       </c>
       <c r="B58" s="67" t="s">
@@ -7946,8 +9634,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="65"/>
+    <row r="59" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A59" s="62"/>
       <c r="B59" s="68"/>
       <c r="C59" s="15" t="s">
         <v>20</v>
@@ -7956,8 +9644,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A60" s="65"/>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="62"/>
       <c r="B60" s="68"/>
       <c r="C60" s="15" t="s">
         <v>303</v>
@@ -7966,8 +9654,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="65"/>
+    <row r="61" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A61" s="62"/>
       <c r="B61" s="68"/>
       <c r="C61" s="21" t="s">
         <v>361</v>
@@ -7976,16 +9664,16 @@
         <v>363</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="66"/>
+    <row r="62" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="63"/>
       <c r="B62" s="69"/>
       <c r="C62" s="26"/>
       <c r="D62" s="19" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A64" s="64" t="s">
+    <row r="64" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A64" s="61" t="s">
         <v>305</v>
       </c>
       <c r="B64" s="67" t="s">
@@ -7998,8 +9686,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="65"/>
+    <row r="65" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="62"/>
       <c r="B65" s="68"/>
       <c r="C65" s="15" t="s">
         <v>20</v>
@@ -8008,8 +9696,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" s="65"/>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="62"/>
       <c r="B66" s="68"/>
       <c r="C66" s="15" t="s">
         <v>303</v>
@@ -8018,8 +9706,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" s="65"/>
+    <row r="67" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="62"/>
       <c r="B67" s="68"/>
       <c r="C67" s="21" t="s">
         <v>368</v>
@@ -8028,16 +9716,16 @@
         <v>364</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="66"/>
+    <row r="68" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A68" s="63"/>
       <c r="B68" s="69"/>
       <c r="C68" s="26"/>
       <c r="D68" s="19" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A70" s="64" t="s">
+    <row r="70" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A70" s="61" t="s">
         <v>311</v>
       </c>
       <c r="B70" s="67" t="s">
@@ -8050,8 +9738,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="65"/>
+    <row r="71" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A71" s="62"/>
       <c r="B71" s="68"/>
       <c r="C71" s="15" t="s">
         <v>20</v>
@@ -8060,8 +9748,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="65"/>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="62"/>
       <c r="B72" s="68"/>
       <c r="C72" s="15" t="s">
         <v>303</v>
@@ -8070,8 +9758,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="65"/>
+    <row r="73" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="62"/>
       <c r="B73" s="68"/>
       <c r="C73" s="21" t="s">
         <v>367</v>
@@ -8080,8 +9768,8 @@
         <v>366</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="66"/>
+    <row r="74" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A74" s="63"/>
       <c r="B74" s="69"/>
       <c r="C74" s="26"/>
       <c r="D74" s="19" t="s">
@@ -8090,6 +9778,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="A33:A37"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B9:B12"/>
@@ -8106,10 +9796,3268 @@
     <mergeCell ref="A58:A62"/>
     <mergeCell ref="B64:B68"/>
     <mergeCell ref="A64:A68"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="A33:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CA6C61-F8F9-4AAA-8325-548CEB92602A}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="40" customWidth="1"/>
+    <col min="4" max="4" width="60.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" s="87" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="87" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87" t="s">
+        <v>375</v>
+      </c>
+      <c r="D6" s="87" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87" t="s">
+        <v>391</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="87" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87" t="s">
+        <v>394</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="87" t="s">
+        <v>229</v>
+      </c>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="87" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87" t="s">
+        <v>413</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB9578D-F058-4E18-9777-448311927D6E}">
+  <dimension ref="A1:Z217"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="G212" sqref="G212"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="41.19921875" customWidth="1"/>
+    <col min="3" max="3" width="49.9296875" customWidth="1"/>
+    <col min="4" max="4" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+    </row>
+    <row r="3" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="88"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" s="88"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="105" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="103"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" s="88"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="D5" s="104" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="103"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" s="88"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="105" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="103"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="97"/>
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" s="88"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="105" t="s">
+        <v>426</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="103"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" s="88" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+    </row>
+    <row r="10" spans="1:26" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="88"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11" s="88"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="107" t="s">
+        <v>420</v>
+      </c>
+      <c r="D11" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12" s="88"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="107" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" s="88"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="107" t="s">
+        <v>424</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>425</v>
+      </c>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" s="88"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="107" t="s">
+        <v>426</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>427</v>
+      </c>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="98"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" s="99"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A16" s="88" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>374</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="88"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="88"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="109" t="s">
+        <v>428</v>
+      </c>
+      <c r="D18" s="108" t="s">
+        <v>429</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="88"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="109" t="s">
+        <v>426</v>
+      </c>
+      <c r="D19" s="108" t="s">
+        <v>430</v>
+      </c>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="88" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="82" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="88"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="88"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="110" t="s">
+        <v>431</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+    </row>
+    <row r="24" spans="1:6" s="111" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="114"/>
+      <c r="B24" s="115"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+    </row>
+    <row r="26" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27" s="88"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="113" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="112" t="s">
+        <v>433</v>
+      </c>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28" s="88"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" s="112" t="s">
+        <v>435</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29" s="88"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="82" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="88"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33" s="88"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="117" t="s">
+        <v>432</v>
+      </c>
+      <c r="D33" s="116" t="s">
+        <v>433</v>
+      </c>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34" s="88"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="117" t="s">
+        <v>436</v>
+      </c>
+      <c r="D34" s="116" t="s">
+        <v>437</v>
+      </c>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="82" t="s">
+        <v>380</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+    </row>
+    <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="88"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38" s="88"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="120" t="s">
+        <v>432</v>
+      </c>
+      <c r="D38" s="119" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39" s="88"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="120" t="s">
+        <v>438</v>
+      </c>
+      <c r="D39" s="119" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="98"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" s="82" t="s">
+        <v>381</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="88"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="88"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="122" t="s">
+        <v>432</v>
+      </c>
+      <c r="D43" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="E43" s="118"/>
+      <c r="F43" s="98"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A44" s="88"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="122" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="E44" s="118"/>
+      <c r="F44" s="98"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A46" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="82" t="s">
+        <v>383</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+    </row>
+    <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="88"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A48" s="88"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="124" t="s">
+        <v>442</v>
+      </c>
+      <c r="D48" s="123" t="s">
+        <v>443</v>
+      </c>
+      <c r="E48" s="98"/>
+      <c r="F48" s="98"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="88"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="124" t="s">
+        <v>444</v>
+      </c>
+      <c r="D49" s="123" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="98"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="98"/>
+      <c r="F51" s="98"/>
+    </row>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="88"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="88"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="127" t="s">
+        <v>442</v>
+      </c>
+      <c r="D53" s="126" t="s">
+        <v>443</v>
+      </c>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="88"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="127" t="s">
+        <v>446</v>
+      </c>
+      <c r="D54" s="126" t="s">
+        <v>447</v>
+      </c>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A57" s="88"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="88"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="130" t="s">
+        <v>448</v>
+      </c>
+      <c r="D58" s="129" t="s">
+        <v>449</v>
+      </c>
+      <c r="E58" s="125"/>
+      <c r="F58" s="98"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="88"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="130" t="s">
+        <v>450</v>
+      </c>
+      <c r="D59" s="129" t="s">
+        <v>451</v>
+      </c>
+      <c r="E59" s="125"/>
+      <c r="F59" s="98"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="98"/>
+      <c r="B60" s="98"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="98"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="98"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A61" s="92" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="98"/>
+      <c r="F61" s="98"/>
+    </row>
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A62" s="92"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A63" s="92"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="132" t="s">
+        <v>452</v>
+      </c>
+      <c r="D63" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="E63" s="128"/>
+      <c r="F63" s="98"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A64" s="92"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="132" t="s">
+        <v>450</v>
+      </c>
+      <c r="D64" s="131" t="s">
+        <v>451</v>
+      </c>
+      <c r="E64" s="128"/>
+      <c r="F64" s="98"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A65" s="98"/>
+      <c r="B65" s="98"/>
+      <c r="C65" s="98"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A66" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="82" t="s">
+        <v>389</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="92"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A68" s="92"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="135" t="s">
+        <v>454</v>
+      </c>
+      <c r="D68" s="134" t="s">
+        <v>455</v>
+      </c>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A69" s="92"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="135" t="s">
+        <v>456</v>
+      </c>
+      <c r="D69" s="134" t="s">
+        <v>457</v>
+      </c>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A70" s="98"/>
+      <c r="B70" s="98"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="98"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A71" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="82" t="s">
+        <v>390</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="98"/>
+      <c r="F71" s="98"/>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A72" s="88"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="98"/>
+      <c r="F72" s="98"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A73" s="88"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="140" t="s">
+        <v>458</v>
+      </c>
+      <c r="D73" s="139" t="s">
+        <v>459</v>
+      </c>
+      <c r="E73" s="133"/>
+      <c r="F73" s="98"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A74" s="88"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="140" t="s">
+        <v>456</v>
+      </c>
+      <c r="D74" s="139" t="s">
+        <v>457</v>
+      </c>
+      <c r="E74" s="133"/>
+      <c r="F74" s="98"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A75" s="98"/>
+      <c r="B75" s="98"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A76" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="82" t="s">
+        <v>392</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A77" s="88"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A78" s="88"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="143" t="s">
+        <v>460</v>
+      </c>
+      <c r="D78" s="142" t="s">
+        <v>461</v>
+      </c>
+      <c r="E78" s="138"/>
+      <c r="F78" s="98"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A79" s="88"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="143" t="s">
+        <v>462</v>
+      </c>
+      <c r="D79" s="142" t="s">
+        <v>463</v>
+      </c>
+      <c r="E79" s="138"/>
+      <c r="F79" s="98"/>
+    </row>
+    <row r="80" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="136"/>
+      <c r="B80" s="137"/>
+      <c r="C80" s="143" t="s">
+        <v>464</v>
+      </c>
+      <c r="D80" s="142" t="s">
+        <v>465</v>
+      </c>
+      <c r="E80" s="138"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A81" s="99"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+    </row>
+    <row r="82" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C82" s="135"/>
+      <c r="D82" s="134"/>
+    </row>
+    <row r="83" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C83" s="135"/>
+      <c r="D83" s="134"/>
+    </row>
+    <row r="84" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C84" s="135"/>
+      <c r="D84" s="134"/>
+    </row>
+    <row r="85" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C85" s="135"/>
+      <c r="D85" s="134"/>
+    </row>
+    <row r="86" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="C86" s="135"/>
+      <c r="D86" s="134"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+    </row>
+    <row r="88" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="88"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" s="88"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="100" t="s">
+        <v>467</v>
+      </c>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" s="88"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="102" t="s">
+        <v>468</v>
+      </c>
+      <c r="D90" s="100" t="s">
+        <v>469</v>
+      </c>
+      <c r="E90" s="98"/>
+      <c r="F90" s="98"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" s="88"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="D91" s="100" t="s">
+        <v>470</v>
+      </c>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>395</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E92" s="98"/>
+      <c r="F92" s="98"/>
+    </row>
+    <row r="93" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="88"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" s="88"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="145" t="s">
+        <v>471</v>
+      </c>
+      <c r="D94" s="144" t="s">
+        <v>472</v>
+      </c>
+      <c r="E94" s="141"/>
+      <c r="F94" s="98"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" s="98"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="B96" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="98"/>
+      <c r="F96" s="98"/>
+    </row>
+    <row r="97" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="88"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E97" s="98"/>
+      <c r="F97" s="98"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" s="88"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="148" t="s">
+        <v>471</v>
+      </c>
+      <c r="D98" s="147" t="s">
+        <v>472</v>
+      </c>
+      <c r="E98" s="98"/>
+      <c r="F98" s="98"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" s="88"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="148" t="s">
+        <v>474</v>
+      </c>
+      <c r="D99" s="147" t="s">
+        <v>475</v>
+      </c>
+      <c r="E99" s="98"/>
+      <c r="F99" s="98"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" s="88"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="148" t="s">
+        <v>476</v>
+      </c>
+      <c r="D100" s="147" t="s">
+        <v>477</v>
+      </c>
+      <c r="E100" s="98"/>
+      <c r="F100" s="98"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" s="88"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="148" t="s">
+        <v>478</v>
+      </c>
+      <c r="D101" s="147" t="s">
+        <v>479</v>
+      </c>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
+    </row>
+    <row r="102" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A102" s="88"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="148" t="s">
+        <v>480</v>
+      </c>
+      <c r="D102" s="147" t="s">
+        <v>481</v>
+      </c>
+      <c r="E102" s="98"/>
+      <c r="F102" s="98"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" s="98"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B104" s="82" t="s">
+        <v>397</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="98"/>
+      <c r="F104" s="98"/>
+    </row>
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A105" s="88"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" s="88"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="150" t="s">
+        <v>471</v>
+      </c>
+      <c r="D106" s="149" t="s">
+        <v>472</v>
+      </c>
+      <c r="E106" s="146"/>
+      <c r="F106" s="98"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="88"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="150" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" s="149" t="s">
+        <v>475</v>
+      </c>
+      <c r="E107" s="146"/>
+      <c r="F107" s="98"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="88"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="150" t="s">
+        <v>476</v>
+      </c>
+      <c r="D108" s="149" t="s">
+        <v>477</v>
+      </c>
+      <c r="E108" s="146"/>
+      <c r="F108" s="98"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="88"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="150" t="s">
+        <v>478</v>
+      </c>
+      <c r="D109" s="149" t="s">
+        <v>479</v>
+      </c>
+      <c r="E109" s="146"/>
+      <c r="F109" s="98"/>
+    </row>
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A110" s="88"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="150" t="s">
+        <v>482</v>
+      </c>
+      <c r="D110" s="149" t="s">
+        <v>483</v>
+      </c>
+      <c r="E110" s="146"/>
+      <c r="F110" s="98"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" s="98"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="98"/>
+      <c r="D111" s="98"/>
+      <c r="E111" s="98"/>
+      <c r="F111" s="98"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="82" t="s">
+        <v>484</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+    </row>
+    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A113" s="88"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A114" s="88"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="152" t="s">
+        <v>471</v>
+      </c>
+      <c r="D114" s="151" t="s">
+        <v>472</v>
+      </c>
+      <c r="E114" s="98"/>
+      <c r="F114" s="98"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A115" s="88"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="152" t="s">
+        <v>485</v>
+      </c>
+      <c r="D115" s="151" t="s">
+        <v>486</v>
+      </c>
+      <c r="E115" s="98"/>
+      <c r="F115" s="98"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A116" s="88"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="152" t="s">
+        <v>487</v>
+      </c>
+      <c r="D116" s="151" t="s">
+        <v>488</v>
+      </c>
+      <c r="E116" s="98"/>
+      <c r="F116" s="98"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A117" s="88"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="152" t="s">
+        <v>489</v>
+      </c>
+      <c r="D117" s="151" t="s">
+        <v>490</v>
+      </c>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A118" s="98"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A119" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="B119" s="82" t="s">
+        <v>399</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E119" s="98"/>
+      <c r="F119" s="98"/>
+    </row>
+    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A120" s="88"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E120" s="98"/>
+      <c r="F120" s="98"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A121" s="88"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="155" t="s">
+        <v>471</v>
+      </c>
+      <c r="D121" s="154" t="s">
+        <v>472</v>
+      </c>
+      <c r="E121" s="98"/>
+      <c r="F121" s="98"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A122" s="88"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="155" t="s">
+        <v>491</v>
+      </c>
+      <c r="D122" s="154" t="s">
+        <v>486</v>
+      </c>
+      <c r="E122" s="98"/>
+      <c r="F122" s="98"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A123" s="88"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="155" t="s">
+        <v>492</v>
+      </c>
+      <c r="D123" s="154" t="s">
+        <v>488</v>
+      </c>
+      <c r="E123" s="98"/>
+      <c r="F123" s="98"/>
+    </row>
+    <row r="124" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A124" s="88"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="155" t="s">
+        <v>493</v>
+      </c>
+      <c r="D124" s="154" t="s">
+        <v>494</v>
+      </c>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A125" s="98"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A126" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="82" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" s="98"/>
+      <c r="F126" s="98"/>
+    </row>
+    <row r="127" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A127" s="88"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A128" s="88"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="158" t="s">
+        <v>471</v>
+      </c>
+      <c r="D128" s="157" t="s">
+        <v>472</v>
+      </c>
+      <c r="E128" s="153"/>
+      <c r="F128" s="98"/>
+    </row>
+    <row r="129" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A129" s="88"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="158" t="s">
+        <v>495</v>
+      </c>
+      <c r="D129" s="157" t="s">
+        <v>496</v>
+      </c>
+      <c r="E129" s="153"/>
+      <c r="F129" s="98"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A130" s="98"/>
+      <c r="B130" s="98"/>
+      <c r="C130" s="98"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A131" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B131" s="82" t="s">
+        <v>402</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+    </row>
+    <row r="132" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A132" s="88"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E132" s="98"/>
+      <c r="F132" s="98"/>
+    </row>
+    <row r="133" spans="1:6" s="159" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="88"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="161" t="s">
+        <v>497</v>
+      </c>
+      <c r="D133" s="160" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A134" s="88"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="161"/>
+      <c r="D134" s="160"/>
+      <c r="E134" s="156"/>
+      <c r="F134" s="98"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A135" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B135" s="82" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+    </row>
+    <row r="136" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A136" s="88"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E136" s="98"/>
+      <c r="F136" s="98"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A137" s="88"/>
+      <c r="B137" s="82"/>
+      <c r="C137" s="163" t="s">
+        <v>497</v>
+      </c>
+      <c r="D137" s="162" t="s">
+        <v>498</v>
+      </c>
+      <c r="E137" s="98"/>
+      <c r="F137" s="98"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A138" s="88"/>
+      <c r="B138" s="82"/>
+      <c r="C138" s="163" t="s">
+        <v>474</v>
+      </c>
+      <c r="D138" s="162" t="s">
+        <v>475</v>
+      </c>
+      <c r="E138" s="98"/>
+      <c r="F138" s="98"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A139" s="88"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="163" t="s">
+        <v>499</v>
+      </c>
+      <c r="D139" s="162" t="s">
+        <v>500</v>
+      </c>
+      <c r="E139" s="98"/>
+      <c r="F139" s="98"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A140" s="88"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="163" t="s">
+        <v>501</v>
+      </c>
+      <c r="D140" s="162" t="s">
+        <v>502</v>
+      </c>
+      <c r="E140" s="98"/>
+      <c r="F140" s="98"/>
+    </row>
+    <row r="141" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A141" s="88"/>
+      <c r="B141" s="82"/>
+      <c r="C141" s="163" t="s">
+        <v>480</v>
+      </c>
+      <c r="D141" s="162" t="s">
+        <v>503</v>
+      </c>
+      <c r="E141" s="98"/>
+      <c r="F141" s="98"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A142" s="98"/>
+      <c r="B142" s="98"/>
+      <c r="C142" s="98"/>
+      <c r="D142" s="98"/>
+      <c r="E142" s="98"/>
+      <c r="F142" s="98"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A143" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="B143" s="82" t="s">
+        <v>403</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E143" s="98"/>
+      <c r="F143" s="98"/>
+    </row>
+    <row r="144" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A144" s="88"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E144" s="98"/>
+      <c r="F144" s="98"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A145" s="88"/>
+      <c r="B145" s="82"/>
+      <c r="C145" s="165" t="s">
+        <v>497</v>
+      </c>
+      <c r="D145" s="164" t="s">
+        <v>498</v>
+      </c>
+      <c r="E145" s="98"/>
+      <c r="F145" s="98"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A146" s="88"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="165" t="s">
+        <v>474</v>
+      </c>
+      <c r="D146" s="164" t="s">
+        <v>475</v>
+      </c>
+      <c r="E146" s="98"/>
+      <c r="F146" s="98"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A147" s="88"/>
+      <c r="B147" s="82"/>
+      <c r="C147" s="165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D147" s="164" t="s">
+        <v>500</v>
+      </c>
+      <c r="E147" s="98"/>
+      <c r="F147" s="98"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A148" s="88"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="165" t="s">
+        <v>501</v>
+      </c>
+      <c r="D148" s="164" t="s">
+        <v>502</v>
+      </c>
+      <c r="E148" s="98"/>
+      <c r="F148" s="98"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A149" s="88"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="165" t="s">
+        <v>504</v>
+      </c>
+      <c r="D149" s="164" t="s">
+        <v>505</v>
+      </c>
+      <c r="E149" s="98"/>
+      <c r="F149" s="98"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A150" s="98"/>
+      <c r="B150" s="98"/>
+      <c r="C150" s="98"/>
+      <c r="D150" s="98"/>
+      <c r="E150" s="98"/>
+      <c r="F150" s="98"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A151" s="88" t="s">
+        <v>245</v>
+      </c>
+      <c r="B151" s="82" t="s">
+        <v>405</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E151" s="98"/>
+      <c r="F151" s="98"/>
+    </row>
+    <row r="152" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A152" s="88"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A153" s="88"/>
+      <c r="B153" s="82"/>
+      <c r="C153" s="167" t="s">
+        <v>497</v>
+      </c>
+      <c r="D153" s="166" t="s">
+        <v>498</v>
+      </c>
+      <c r="E153" s="98"/>
+      <c r="F153" s="98"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A154" s="88"/>
+      <c r="B154" s="82"/>
+      <c r="C154" s="167" t="s">
+        <v>485</v>
+      </c>
+      <c r="D154" s="166" t="s">
+        <v>486</v>
+      </c>
+      <c r="E154" s="98"/>
+      <c r="F154" s="98"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A155" s="88"/>
+      <c r="B155" s="82"/>
+      <c r="C155" s="167" t="s">
+        <v>487</v>
+      </c>
+      <c r="D155" s="166" t="s">
+        <v>488</v>
+      </c>
+      <c r="E155" s="98"/>
+      <c r="F155" s="98"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A156" s="88"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="167" t="s">
+        <v>489</v>
+      </c>
+      <c r="D156" s="166" t="s">
+        <v>506</v>
+      </c>
+      <c r="E156" s="98"/>
+      <c r="F156" s="98"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A157" s="98"/>
+      <c r="B157" s="98"/>
+      <c r="C157" s="98"/>
+      <c r="D157" s="98"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="98"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A158" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="B158" s="82" t="s">
+        <v>406</v>
+      </c>
+      <c r="C158" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E158" s="98"/>
+      <c r="F158" s="98"/>
+    </row>
+    <row r="159" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A159" s="88"/>
+      <c r="B159" s="82"/>
+      <c r="C159" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E159" s="98"/>
+      <c r="F159" s="98"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A160" s="88"/>
+      <c r="B160" s="82"/>
+      <c r="C160" s="169" t="s">
+        <v>497</v>
+      </c>
+      <c r="D160" s="168" t="s">
+        <v>498</v>
+      </c>
+      <c r="E160" s="98"/>
+      <c r="F160" s="98"/>
+    </row>
+    <row r="161" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A161" s="88"/>
+      <c r="B161" s="82"/>
+      <c r="C161" s="169" t="s">
+        <v>495</v>
+      </c>
+      <c r="D161" s="168" t="s">
+        <v>507</v>
+      </c>
+      <c r="E161" s="98"/>
+      <c r="F161" s="98"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A162" s="98"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A163" s="88" t="s">
+        <v>263</v>
+      </c>
+      <c r="B163" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="C163" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E163" s="98"/>
+      <c r="F163" s="98"/>
+    </row>
+    <row r="164" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A164" s="88"/>
+      <c r="B164" s="82"/>
+      <c r="C164" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E164" s="98"/>
+      <c r="F164" s="98"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A165" s="88"/>
+      <c r="B165" s="82"/>
+      <c r="C165" s="171" t="s">
+        <v>508</v>
+      </c>
+      <c r="D165" s="170" t="s">
+        <v>509</v>
+      </c>
+      <c r="E165" s="98"/>
+      <c r="F165" s="98"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A166" s="98"/>
+      <c r="B166" s="98"/>
+      <c r="C166" s="98"/>
+      <c r="D166" s="98"/>
+      <c r="E166" s="98"/>
+      <c r="F166" s="98"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A167" s="88" t="s">
+        <v>266</v>
+      </c>
+      <c r="B167" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="C167" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D167" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E167" s="98"/>
+      <c r="F167" s="98"/>
+    </row>
+    <row r="168" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A168" s="88"/>
+      <c r="B168" s="82"/>
+      <c r="C168" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E168" s="98"/>
+      <c r="F168" s="98"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A169" s="88"/>
+      <c r="B169" s="82"/>
+      <c r="C169" s="173" t="s">
+        <v>508</v>
+      </c>
+      <c r="D169" s="172" t="s">
+        <v>509</v>
+      </c>
+      <c r="E169" s="98"/>
+      <c r="F169" s="98"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A170" s="88"/>
+      <c r="B170" s="82"/>
+      <c r="C170" s="173" t="s">
+        <v>474</v>
+      </c>
+      <c r="D170" s="172" t="s">
+        <v>475</v>
+      </c>
+      <c r="E170" s="98"/>
+      <c r="F170" s="98"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A171" s="88"/>
+      <c r="B171" s="82"/>
+      <c r="C171" s="173" t="s">
+        <v>510</v>
+      </c>
+      <c r="D171" s="172" t="s">
+        <v>511</v>
+      </c>
+      <c r="E171" s="98"/>
+      <c r="F171" s="98"/>
+    </row>
+    <row r="172" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A172" s="88"/>
+      <c r="B172" s="82"/>
+      <c r="C172" s="173" t="s">
+        <v>512</v>
+      </c>
+      <c r="D172" s="172" t="s">
+        <v>513</v>
+      </c>
+      <c r="E172" s="98"/>
+      <c r="F172" s="98"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A173" s="98"/>
+      <c r="B173" s="98"/>
+      <c r="C173" s="98"/>
+      <c r="D173" s="98"/>
+      <c r="E173" s="98"/>
+      <c r="F173" s="98"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A174" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B174" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E174" s="133"/>
+      <c r="F174" s="133"/>
+    </row>
+    <row r="175" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A175" s="88"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E175" s="133"/>
+      <c r="F175" s="133"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A176" s="88"/>
+      <c r="B176" s="82"/>
+      <c r="C176" s="175" t="s">
+        <v>508</v>
+      </c>
+      <c r="D176" s="174" t="s">
+        <v>509</v>
+      </c>
+      <c r="E176" s="98"/>
+      <c r="F176" s="98"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A177" s="88"/>
+      <c r="B177" s="82"/>
+      <c r="C177" s="175" t="s">
+        <v>514</v>
+      </c>
+      <c r="D177" s="174" t="s">
+        <v>505</v>
+      </c>
+      <c r="E177" s="98"/>
+      <c r="F177" s="98"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A178" s="98"/>
+      <c r="B178" s="98"/>
+      <c r="C178" s="98"/>
+      <c r="D178" s="98"/>
+      <c r="E178" s="98"/>
+      <c r="F178" s="98"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A179" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B179" s="82" t="s">
+        <v>411</v>
+      </c>
+      <c r="C179" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D179" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E179" s="133"/>
+      <c r="F179" s="133"/>
+    </row>
+    <row r="180" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A180" s="88"/>
+      <c r="B180" s="82"/>
+      <c r="C180" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E180" s="133"/>
+      <c r="F180" s="133"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A181" s="88"/>
+      <c r="B181" s="82"/>
+      <c r="C181" s="177" t="s">
+        <v>508</v>
+      </c>
+      <c r="D181" s="176" t="s">
+        <v>509</v>
+      </c>
+      <c r="E181" s="98"/>
+      <c r="F181" s="98"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A182" s="88"/>
+      <c r="B182" s="82"/>
+      <c r="C182" s="177" t="s">
+        <v>515</v>
+      </c>
+      <c r="D182" s="176" t="s">
+        <v>486</v>
+      </c>
+      <c r="E182" s="98"/>
+      <c r="F182" s="98"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A183" s="88"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="177" t="s">
+        <v>492</v>
+      </c>
+      <c r="D183" s="176" t="s">
+        <v>488</v>
+      </c>
+      <c r="E183" s="98"/>
+      <c r="F183" s="98"/>
+    </row>
+    <row r="184" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A184" s="88"/>
+      <c r="B184" s="82"/>
+      <c r="C184" s="177" t="s">
+        <v>516</v>
+      </c>
+      <c r="D184" s="176" t="s">
+        <v>517</v>
+      </c>
+      <c r="E184" s="98"/>
+      <c r="F184" s="98"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A185" s="98"/>
+      <c r="B185" s="98"/>
+      <c r="C185" s="98"/>
+      <c r="D185" s="98"/>
+      <c r="E185" s="98"/>
+      <c r="F185" s="98"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A186" s="88" t="s">
+        <v>275</v>
+      </c>
+      <c r="B186" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="C186" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E186" s="133"/>
+      <c r="F186" s="133"/>
+    </row>
+    <row r="187" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A187" s="88"/>
+      <c r="B187" s="82"/>
+      <c r="C187" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E187" s="133"/>
+      <c r="F187" s="133"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A188" s="88"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="180" t="s">
+        <v>508</v>
+      </c>
+      <c r="D188" s="179" t="s">
+        <v>509</v>
+      </c>
+      <c r="E188" s="98"/>
+      <c r="F188" s="98"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A189" s="88"/>
+      <c r="B189" s="82"/>
+      <c r="C189" s="180" t="s">
+        <v>518</v>
+      </c>
+      <c r="D189" s="179" t="s">
+        <v>519</v>
+      </c>
+      <c r="E189" s="98"/>
+      <c r="F189" s="98"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A190" s="98"/>
+      <c r="B190" s="98"/>
+      <c r="C190" s="98"/>
+      <c r="D190" s="98"/>
+      <c r="E190" s="98"/>
+      <c r="F190" s="98"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A191" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="B191" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="C191" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D191" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E191" s="133"/>
+      <c r="F191" s="133"/>
+    </row>
+    <row r="192" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A192" s="88"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E192" s="133"/>
+      <c r="F192" s="133"/>
+    </row>
+    <row r="193" spans="1:6" s="181" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="88"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="183" t="s">
+        <v>520</v>
+      </c>
+      <c r="D193" s="182" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A194" s="88"/>
+      <c r="B194" s="82"/>
+      <c r="C194" s="183"/>
+      <c r="D194" s="182"/>
+      <c r="E194" s="178"/>
+      <c r="F194" s="98"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A195" s="88" t="s">
+        <v>292</v>
+      </c>
+      <c r="B195" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="C195" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D195" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E195" s="133"/>
+      <c r="F195" s="133"/>
+    </row>
+    <row r="196" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A196" s="88"/>
+      <c r="B196" s="82"/>
+      <c r="C196" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E196" s="133"/>
+      <c r="F196" s="133"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A197" s="88"/>
+      <c r="B197" s="82"/>
+      <c r="C197" s="185" t="s">
+        <v>520</v>
+      </c>
+      <c r="D197" s="184" t="s">
+        <v>521</v>
+      </c>
+      <c r="E197" s="98"/>
+      <c r="F197" s="98"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A198" s="88"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="185" t="s">
+        <v>474</v>
+      </c>
+      <c r="D198" s="184" t="s">
+        <v>475</v>
+      </c>
+      <c r="E198" s="98"/>
+      <c r="F198" s="98"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A199" s="88"/>
+      <c r="B199" s="82"/>
+      <c r="C199" s="185" t="s">
+        <v>522</v>
+      </c>
+      <c r="D199" s="184" t="s">
+        <v>511</v>
+      </c>
+      <c r="E199" s="98"/>
+      <c r="F199" s="98"/>
+    </row>
+    <row r="200" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A200" s="88"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="185" t="s">
+        <v>523</v>
+      </c>
+      <c r="D200" s="184" t="s">
+        <v>524</v>
+      </c>
+      <c r="E200" s="98"/>
+      <c r="F200" s="98"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A201" s="98"/>
+      <c r="B201" s="98"/>
+      <c r="C201" s="98"/>
+      <c r="D201" s="98"/>
+      <c r="E201" s="98"/>
+      <c r="F201" s="98"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A202" s="88" t="s">
+        <v>294</v>
+      </c>
+      <c r="B202" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="C202" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D202" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E202" s="133"/>
+      <c r="F202" s="133"/>
+    </row>
+    <row r="203" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A203" s="88"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" s="133"/>
+      <c r="F203" s="133"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A204" s="88"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="188" t="s">
+        <v>520</v>
+      </c>
+      <c r="D204" s="187" t="s">
+        <v>521</v>
+      </c>
+      <c r="E204" s="98"/>
+      <c r="F204" s="98"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A205" s="88"/>
+      <c r="B205" s="82"/>
+      <c r="C205" s="188" t="s">
+        <v>514</v>
+      </c>
+      <c r="D205" s="187" t="s">
+        <v>525</v>
+      </c>
+      <c r="E205" s="98"/>
+      <c r="F205" s="98"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A206" s="98"/>
+      <c r="B206" s="98"/>
+      <c r="C206" s="98"/>
+      <c r="D206" s="98"/>
+      <c r="E206" s="98"/>
+      <c r="F206" s="98"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A207" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="B207" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="C207" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D207" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E207" s="133"/>
+      <c r="F207" s="133"/>
+    </row>
+    <row r="208" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A208" s="88"/>
+      <c r="B208" s="82"/>
+      <c r="C208" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E208" s="133"/>
+      <c r="F208" s="133"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A209" s="88"/>
+      <c r="B209" s="82"/>
+      <c r="C209" s="190" t="s">
+        <v>520</v>
+      </c>
+      <c r="D209" s="189" t="s">
+        <v>521</v>
+      </c>
+      <c r="E209" s="186"/>
+      <c r="F209" s="98"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A210" s="88"/>
+      <c r="B210" s="82"/>
+      <c r="C210" s="190" t="s">
+        <v>515</v>
+      </c>
+      <c r="D210" s="189" t="s">
+        <v>486</v>
+      </c>
+      <c r="E210" s="186"/>
+      <c r="F210" s="98"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A211" s="88"/>
+      <c r="B211" s="82"/>
+      <c r="C211" s="190" t="s">
+        <v>492</v>
+      </c>
+      <c r="D211" s="189" t="s">
+        <v>488</v>
+      </c>
+      <c r="E211" s="186"/>
+      <c r="F211" s="98"/>
+    </row>
+    <row r="212" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A212" s="88"/>
+      <c r="B212" s="82"/>
+      <c r="C212" s="190" t="s">
+        <v>516</v>
+      </c>
+      <c r="D212" s="189" t="s">
+        <v>527</v>
+      </c>
+      <c r="E212" s="186"/>
+      <c r="F212" s="98"/>
+    </row>
+    <row r="213" spans="1:6" s="133" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A213" s="136"/>
+      <c r="B213" s="137"/>
+      <c r="C213" s="135"/>
+      <c r="D213" s="134"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A214" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="B214" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C214" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D214" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E214" s="133"/>
+      <c r="F214" s="133"/>
+    </row>
+    <row r="215" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A215" s="88"/>
+      <c r="B215" s="82"/>
+      <c r="C215" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E215" s="133"/>
+      <c r="F215" s="133"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="88"/>
+      <c r="B216" s="82"/>
+      <c r="C216" s="192" t="s">
+        <v>520</v>
+      </c>
+      <c r="D216" s="191" t="s">
+        <v>521</v>
+      </c>
+      <c r="E216" s="98"/>
+      <c r="F216" s="98"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="88"/>
+      <c r="B217" s="82"/>
+      <c r="C217" s="192" t="s">
+        <v>529</v>
+      </c>
+      <c r="D217" s="191" t="s">
+        <v>530</v>
+      </c>
+      <c r="E217" s="98"/>
+      <c r="F217" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="74">
+    <mergeCell ref="B195:B200"/>
+    <mergeCell ref="A195:A200"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A163:A165"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B104:B110"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B158:B161"/>
+    <mergeCell ref="B186:B189"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="A214:A217"/>
+    <mergeCell ref="B202:B205"/>
+    <mergeCell ref="A202:A205"/>
+    <mergeCell ref="B191:B194"/>
+    <mergeCell ref="B167:B172"/>
+    <mergeCell ref="A167:A172"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="B174:B177"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A135:A141"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="A151:A156"/>
+    <mergeCell ref="B135:B141"/>
+    <mergeCell ref="B143:B149"/>
+    <mergeCell ref="A143:A149"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B119:B124"/>
+    <mergeCell ref="A119:A124"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="A112:A117"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B96:B102"/>
+    <mergeCell ref="A96:A102"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>